--- a/Trojantrading/wwwroot/ImportProducts.xlsx
+++ b/Trojantrading/wwwroot/ImportProducts.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxyct\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{588E3B8F-07CB-47CB-850F-396769698A88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46D0BF9-DA85-4690-8BE4-E1DE4A3F4FA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="767" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" tabRatio="767" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="May 19 Promo_Wholesale(Accesori" sheetId="28" state="hidden" r:id="rId1"/>
@@ -35,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>keng zhang</author>
   </authors>
   <commentList>
-    <comment ref="H57" authorId="0" shapeId="0">
+    <comment ref="H57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I57" authorId="0" shapeId="0">
+    <comment ref="I57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H58" authorId="0" shapeId="0">
+    <comment ref="H58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I58" authorId="0" shapeId="0">
+    <comment ref="I58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G61" authorId="0" shapeId="0">
+    <comment ref="G61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H61" authorId="0" shapeId="0">
+    <comment ref="H61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I61" authorId="0" shapeId="0">
+    <comment ref="I61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G62" authorId="0" shapeId="0">
+    <comment ref="G62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H62" authorId="0" shapeId="0">
+    <comment ref="H62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I62" authorId="0" shapeId="0">
+    <comment ref="I62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -285,12 +285,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>keng zhang</author>
   </authors>
   <commentList>
-    <comment ref="AS56" authorId="0" shapeId="0">
+    <comment ref="AS56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C82" authorId="0" shapeId="0">
+    <comment ref="C82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C91" authorId="0" shapeId="0">
+    <comment ref="C91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -343,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR181" authorId="0" shapeId="0">
+    <comment ref="AR181" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -367,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS181" authorId="0" shapeId="0">
+    <comment ref="AS181" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -391,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR182" authorId="0" shapeId="0">
+    <comment ref="AR182" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS182" authorId="0" shapeId="0">
+    <comment ref="AS182" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -439,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR185" authorId="0" shapeId="0">
+    <comment ref="AR185" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -463,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS185" authorId="0" shapeId="0">
+    <comment ref="AS185" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -487,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR186" authorId="0" shapeId="0">
+    <comment ref="AR186" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -511,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS186" authorId="0" shapeId="0">
+    <comment ref="AS186" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -540,13 +540,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>keng zhang</author>
     <author>Mandy</author>
   </authors>
   <commentList>
-    <comment ref="AT37" authorId="0" shapeId="0">
+    <comment ref="AT37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -570,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT40" authorId="0" shapeId="0">
+    <comment ref="AT40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -594,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C58" authorId="0" shapeId="0">
+    <comment ref="C58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -608,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM93" authorId="1" shapeId="0">
+    <comment ref="AM93" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -632,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT118" authorId="0" shapeId="0">
+    <comment ref="AT118" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -661,12 +661,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>keng zhang</author>
   </authors>
   <commentList>
-    <comment ref="C54" authorId="0" shapeId="0">
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -680,7 +680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C55" authorId="0" shapeId="0">
+    <comment ref="C55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -694,7 +694,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="0" shapeId="0">
+    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -709,7 +709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C81" authorId="0" shapeId="0">
+    <comment ref="C81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -729,12 +729,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>keng zhang</author>
   </authors>
   <commentList>
-    <comment ref="H56" authorId="0" shapeId="0">
+    <comment ref="H56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -758,7 +758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I56" authorId="0" shapeId="0">
+    <comment ref="I56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -782,7 +782,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H57" authorId="0" shapeId="0">
+    <comment ref="H57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -806,7 +806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I57" authorId="0" shapeId="0">
+    <comment ref="I57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -3990,13 +3990,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -4196,12 +4196,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4511,16 +4505,16 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -4531,17 +4525,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4550,22 +4544,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4575,10 +4569,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4588,41 +4582,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4630,8 +4624,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4642,15 +4636,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4671,19 +4665,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4693,7 +4687,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4705,31 +4699,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="14" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="14" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4740,43 +4734,43 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="14" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="18" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="170" fontId="18" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="20" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="20" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="20" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="18" fillId="2" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4788,14 +4782,14 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="24" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4817,12 +4811,12 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4835,20 +4829,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="22" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="22" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="22" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="18" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="22" fillId="5" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4861,23 +4855,23 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="22" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="18" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4885,23 +4879,32 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="33" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="32" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="32" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="32" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="32" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="32" fillId="8" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="32" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="32" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="32" fillId="8" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="31" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="8" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="8" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4923,6 +4926,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4932,12 +4944,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4945,26 +4951,8 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="20" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4984,6 +4972,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4994,6 +4985,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5016,24 +5010,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5043,8 +5019,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5058,21 +5040,33 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Currency 2" xfId="3"/>
-    <cellStyle name="Currency 3" xfId="4"/>
+    <cellStyle name="Currency 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5958,7 +5952,7 @@
               </c15:filteredCategoryTitle>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-291C-472F-908E-18517019FA78}"/>
+              <c16:uniqueId val="{00000000-5540-4464-BCFD-59C188B5F6B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6782,7 +6776,7 @@
               </c15:filteredCategoryTitle>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-291C-472F-908E-18517019FA78}"/>
+              <c16:uniqueId val="{00000001-5540-4464-BCFD-59C188B5F6B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7606,7 +7600,7 @@
               </c15:filteredCategoryTitle>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-291C-472F-908E-18517019FA78}"/>
+              <c16:uniqueId val="{00000002-5540-4464-BCFD-59C188B5F6B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8430,7 +8424,7 @@
               </c15:filteredCategoryTitle>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-291C-472F-908E-18517019FA78}"/>
+              <c16:uniqueId val="{00000003-5540-4464-BCFD-59C188B5F6B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9251,7 +9245,7 @@
               </c15:filteredCategoryTitle>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-291C-472F-908E-18517019FA78}"/>
+              <c16:uniqueId val="{00000004-5540-4464-BCFD-59C188B5F6B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10063,7 +10057,7 @@
               </c15:filteredCategoryTitle>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-291C-472F-908E-18517019FA78}"/>
+              <c16:uniqueId val="{00000005-5540-4464-BCFD-59C188B5F6B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10887,7 +10881,7 @@
               </c15:filteredCategoryTitle>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-291C-472F-908E-18517019FA78}"/>
+              <c16:uniqueId val="{00000006-5540-4464-BCFD-59C188B5F6B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11711,7 +11705,7 @@
               </c15:filteredCategoryTitle>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-291C-472F-908E-18517019FA78}"/>
+              <c16:uniqueId val="{00000007-5540-4464-BCFD-59C188B5F6B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11767,7 +11761,7 @@
               </c15:filteredCategoryTitle>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-291C-472F-908E-18517019FA78}"/>
+              <c16:uniqueId val="{00000008-5540-4464-BCFD-59C188B5F6B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11823,7 +11817,7 @@
               </c15:filteredCategoryTitle>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-291C-472F-908E-18517019FA78}"/>
+              <c16:uniqueId val="{00000009-5540-4464-BCFD-59C188B5F6B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11837,11 +11831,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1535584000"/>
+        <c:axId val="384254815"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1535584000"/>
+        <c:axId val="384254815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11941,7 +11935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1535584000"/>
+        <c:crossAx val="384254815"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12015,7 +12009,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="121" workbookViewId="0"/>
@@ -12045,7 +12039,7 @@
         <xdr:cNvPr id="89404" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEF8371-E679-482A-A23D-30240FC4291F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC5E2D7B-1353-4666-9485-10F91252F92A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12119,7 +12113,7 @@
         <xdr:cNvPr id="89405" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DABD20D-6D5A-40CF-A40A-8E539482455A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20306D4B-E599-4937-9CE3-E313E1707A12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12193,7 +12187,7 @@
         <xdr:cNvPr id="89406" name="Group 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C223AE2-E6B8-44BB-8060-DE4E89A2DC57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B6817B9-ACAF-467B-881B-CB88C4189B49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12214,7 +12208,7 @@
           <xdr:cNvPr id="89408" name="AutoShape 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7234D7B3-C591-420B-96D3-1C2FCFB708AA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD47349-55DE-4701-871A-B20606886E0A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12364,7 +12358,7 @@
           <xdr:cNvPr id="89411" name="Line 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0BA037B-66FA-4231-833B-D9E999B4DFDE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC5917B3-E054-492C-94A2-1A0E4ABF0963}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12403,7 +12397,7 @@
           <xdr:cNvPr id="89412" name="Rectangle 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C0CE1A-85CD-4460-B5E9-A0711E9F49D3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E9F5C1-7DD4-45DA-9FEB-043E71F88040}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12444,7 +12438,7 @@
           <xdr:cNvPr id="89413" name="Line 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC648A13-F2E8-45B8-960C-CDD814763755}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783D4371-6C5A-4372-961F-A4D1E91BAFB7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12483,7 +12477,7 @@
           <xdr:cNvPr id="89414" name="Rectangle 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8C51BFA-A1EA-4F4A-9B54-C2A3F8A5C30A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF16BA3-8250-41EF-A9EA-CDB18B7CA8B9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12524,7 +12518,7 @@
           <xdr:cNvPr id="89415" name="Line 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA95D2A-8814-421B-9097-3822AB007D46}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D737A5D-3229-40A9-8BA0-C1BAE323FBA3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12563,7 +12557,7 @@
           <xdr:cNvPr id="89416" name="Rectangle 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA274B8-A8AA-4FA1-97F1-B8746EC071B3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0671F846-345B-420C-822F-F8F7BAE76A34}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12604,7 +12598,7 @@
           <xdr:cNvPr id="89417" name="Line 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5737295A-7725-44B5-A951-E9491EFA832E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE81FE0-3DBF-497B-8FE7-E4DBD4817CED}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12643,7 +12637,7 @@
           <xdr:cNvPr id="89418" name="Rectangle 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54205CE0-E678-45C8-A22A-2542C6ACC687}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801DB4D7-108E-4A9A-A0E8-D755AD956F52}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12684,7 +12678,7 @@
           <xdr:cNvPr id="89419" name="Line 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A140E7E6-600A-400E-A8A9-D8F0F5E1BFBB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C0822C-3A86-4307-B60F-541F30AB5DFE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12723,7 +12717,7 @@
           <xdr:cNvPr id="89420" name="Rectangle 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E293324-E48E-433A-9834-CA7071E50525}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD9681D-7ABF-43A1-A442-90FFBFFAE022}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12764,7 +12758,7 @@
           <xdr:cNvPr id="89421" name="Line 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A85836F-C4B4-4559-A911-A27C0DE20E02}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A42A2B-4E3C-4156-8D96-68F0613C1FFD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12803,7 +12797,7 @@
           <xdr:cNvPr id="89422" name="Rectangle 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A51D26-38EF-481A-BD54-A03ACAB34A99}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84027D67-3654-43AC-8ACB-CF3AF0993419}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12844,7 +12838,7 @@
           <xdr:cNvPr id="89423" name="Line 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40507F1A-B531-4616-A918-7326B840D0E1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4062BED-F9A3-4A0F-9351-A5CA7440AE35}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12883,7 +12877,7 @@
           <xdr:cNvPr id="89424" name="Rectangle 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2178DE1-E080-4621-B384-486A5996EABA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE9DCD7-ACE8-4E12-AAD8-C56939DCA2EA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12924,7 +12918,7 @@
           <xdr:cNvPr id="89425" name="Line 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C68C0C-BA03-4D82-AD68-140AFA3D5683}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79CA9984-9170-45C1-9B55-9B86E708C1E5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12963,7 +12957,7 @@
           <xdr:cNvPr id="89426" name="Rectangle 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A82DC0A-CB47-42E6-B9A7-02936970638C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299EDD2E-D8D8-4F49-8F43-E7390A848043}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13004,7 +12998,7 @@
           <xdr:cNvPr id="89427" name="Line 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AAA123A-8F31-4AFD-9E99-B3D36AE8E492}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6425F3-205B-486A-B5AC-04E12C16CF70}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13043,7 +13037,7 @@
           <xdr:cNvPr id="89428" name="Rectangle 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5FDE34B-EA0C-463B-8F19-2630AA7F0F85}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DAE0B5-A577-4A26-B476-A5CF7070D3C9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13084,7 +13078,7 @@
           <xdr:cNvPr id="89429" name="Line 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F1CB26-F9C3-49FF-820F-67F4D1DDFD1B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ACEC2EB-2FDB-4EEB-9D84-56D76BDBBB7D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13123,7 +13117,7 @@
           <xdr:cNvPr id="89430" name="Rectangle 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E22486FA-AA4F-426E-A7DC-C5A917E658BC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1014A8EB-B040-4817-8E92-464467320563}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13164,7 +13158,7 @@
           <xdr:cNvPr id="89431" name="Line 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C091B91D-272E-405A-AC91-D1AF1EFAD1A7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{149D49DB-A8C8-494A-8013-9DD58B833EB2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13203,7 +13197,7 @@
           <xdr:cNvPr id="89432" name="Rectangle 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{816EC10C-EA59-442C-961B-7C09E22A0E1A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539D2907-CD73-4B1B-9ABA-EEB724BC6DC7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13244,7 +13238,7 @@
           <xdr:cNvPr id="89433" name="Line 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CBAC78-676A-4F8B-A11A-16B2711A1042}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB80A8E-D294-440D-A323-E51AC3A8B085}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13283,7 +13277,7 @@
           <xdr:cNvPr id="89434" name="Rectangle 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6ECA288-5BF8-45FC-AAD9-E2327EB3D37D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A6585A-DC16-4FBB-94AA-5A558D4C8DD0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13324,7 +13318,7 @@
           <xdr:cNvPr id="89435" name="Line 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F6F62B-2B00-4CA3-91B9-EB3A0BD49BD8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B84126-8F31-4E86-A497-A533A8EDC27A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13363,7 +13357,7 @@
           <xdr:cNvPr id="89436" name="Rectangle 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55AB722-2A8E-4290-8755-A487C9C9DB87}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA0DFDF-DD56-42A6-A332-A7DE20C7A236}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13404,7 +13398,7 @@
           <xdr:cNvPr id="89437" name="Rectangle 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA6F09A-E967-400E-8248-51A239292B58}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D17FDA4-EC1F-438B-9F5A-951C119DEEBF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13461,7 +13455,7 @@
         <xdr:cNvPr id="89407" name="AutoShape 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CB4C02-6475-4994-89A2-75DE30B56C29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E6A263-7031-4080-9A2B-D5C425B18E19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13527,7 +13521,7 @@
         <xdr:cNvPr id="87487" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34996FD8-8264-4416-9646-72706ACCBCA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA215C5E-997D-4F96-9049-13AA59EC3952}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13601,7 +13595,7 @@
         <xdr:cNvPr id="87488" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E30C526-16A8-44A9-98E0-1C1B0B4374E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A866E79-4388-4534-835C-6070BF920F03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13675,7 +13669,7 @@
         <xdr:cNvPr id="87489" name="Group 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53DB4F58-3635-44F3-9DF5-103398DB982E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9964225D-C646-49C1-B6CA-DE4F3D3378FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13696,7 +13690,7 @@
           <xdr:cNvPr id="87494" name="AutoShape 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328D74E1-2DD3-4936-A76A-377A5BD0D062}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE274FD-C1D3-466C-9259-F739862EC313}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13835,7 +13829,7 @@
           <xdr:cNvPr id="87497" name="Line 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF1D4010-E5B2-4AFD-A71F-695053FD16ED}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B819C9-39EB-46D2-9EBA-632AC04EBB13}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13874,7 +13868,7 @@
           <xdr:cNvPr id="87498" name="Rectangle 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5521CB5-C605-4CA8-8051-2A8966E84090}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F443F41-4148-40A4-8333-5B203114DAF5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13915,7 +13909,7 @@
           <xdr:cNvPr id="87499" name="Line 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8271199F-23C5-4EE6-AED4-7C54DC92948F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E735DAF7-43EF-4820-B3F6-2EEFA54A18C6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13954,7 +13948,7 @@
           <xdr:cNvPr id="87500" name="Rectangle 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5EF1065-1369-45D8-A25C-F7C5307B7341}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB067E2-4FFF-482E-97E9-EF64097E5E59}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13995,7 +13989,7 @@
           <xdr:cNvPr id="87501" name="Line 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C48618-0162-480B-B658-65288D218CB7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A4A4D4D-C5E6-4441-9EF5-C41F7E9C6F9C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14034,7 +14028,7 @@
           <xdr:cNvPr id="87502" name="Rectangle 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1131190F-B296-4FC9-8FE4-16FB1AB4AAE9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D543DA0-DE88-4687-83E5-77432CC65047}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14075,7 +14069,7 @@
           <xdr:cNvPr id="87503" name="Line 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5843898-107F-4CEC-A71C-A3BF48F91747}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59530949-0ADC-49CF-8394-E7AAC52E9102}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14114,7 +14108,7 @@
           <xdr:cNvPr id="87504" name="Rectangle 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC4B8691-C13F-4061-AC4D-E3F5EACD640B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94CCE59-E5E7-4753-9EAE-8D22CD1C7E4A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14155,7 +14149,7 @@
           <xdr:cNvPr id="87505" name="Line 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91582D03-9C42-4AD0-BAB1-1702CEE64047}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B513F4-D5DC-469B-BFBD-DAECD5AB6878}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14194,7 +14188,7 @@
           <xdr:cNvPr id="87506" name="Rectangle 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BA0791-DC97-4ACC-9BE2-DEC8BAEB5F41}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B83400E-281A-4472-8DFD-B527152E3E00}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14235,7 +14229,7 @@
           <xdr:cNvPr id="87507" name="Line 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6FB6CE-B09A-45BE-8D23-09449DF079B6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95622339-1883-4775-89EB-E0F08A71E84B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14274,7 +14268,7 @@
           <xdr:cNvPr id="87508" name="Rectangle 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784979C1-5E9D-4D75-9F55-6C70212CBF6B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4384067F-CABF-49C5-8212-8B767A33DF20}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14315,7 +14309,7 @@
           <xdr:cNvPr id="87509" name="Line 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{953318A3-5AA2-4C01-8589-7B92C0939DA8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CA3FC0-9186-45EA-937A-8BCD2ABF5416}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14354,7 +14348,7 @@
           <xdr:cNvPr id="87510" name="Rectangle 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1E6F52-0CDB-4612-80B0-E985BCA3E5E5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FE2C26-A3FB-46FB-99DD-ECA5D298D24C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14395,7 +14389,7 @@
           <xdr:cNvPr id="87511" name="Line 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F84844D-54DC-45EB-8EA2-DE4EBB22B358}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348440F3-0C37-4655-ABD5-A6361BCC06D4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14434,7 +14428,7 @@
           <xdr:cNvPr id="87512" name="Rectangle 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9635500B-F2F2-435A-9289-1E75CB87C1BD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E36CEF-D08B-4F82-952E-CCF891A1C67D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14475,7 +14469,7 @@
           <xdr:cNvPr id="87513" name="Line 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B04B422B-8675-4DBA-B9A2-197774E9A438}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABAB3CF-645A-430C-A9C0-DE2B21F7D175}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14514,7 +14508,7 @@
           <xdr:cNvPr id="87514" name="Rectangle 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2BFFB86-39C4-4287-BDA0-1216852A6051}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14668A3E-6A70-4651-B146-79A6E8A96A69}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14555,7 +14549,7 @@
           <xdr:cNvPr id="87515" name="Line 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E55C0A-9780-4817-A3C2-263A38A9D0E5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0769849-5D95-454C-9F3C-6F5CB17A57DB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14594,7 +14588,7 @@
           <xdr:cNvPr id="87516" name="Rectangle 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EA16877-D807-49F5-B2E9-4F46665FDF50}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A258D4-3C0B-4FB6-9BE4-1F6A4F84F43F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14635,7 +14629,7 @@
           <xdr:cNvPr id="87517" name="Line 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA571241-C825-4C56-9873-FAF29B2C2E5E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E71DDEC-AC12-4F27-B8D8-E68CA5B83E65}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14674,7 +14668,7 @@
           <xdr:cNvPr id="87518" name="Rectangle 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FFDCD3-D17F-4B2E-9176-657C2CB6B390}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76341113-3046-430C-87FC-C57C9A7819D1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14715,7 +14709,7 @@
           <xdr:cNvPr id="87519" name="Line 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B6C8236-961C-4E4B-B0CA-34471335982C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5201C0-610F-49CC-B407-F409EF7E153F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14754,7 +14748,7 @@
           <xdr:cNvPr id="87520" name="Rectangle 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9C1A95-FBA6-497F-B51D-5BB89AFC9ACB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3842EE12-DAC1-4A73-B2A9-82914C532BCB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14795,7 +14789,7 @@
           <xdr:cNvPr id="87521" name="Line 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAB4008-689F-4C81-80DB-8E0B1A530FA3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2937989-9CD2-4EA4-B5B9-43D0B03A1516}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14834,7 +14828,7 @@
           <xdr:cNvPr id="87522" name="Rectangle 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FE27AF-E7A3-4039-8B09-55C4DFBE73CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F891AD3-EBEF-40A4-B69A-B6ABD49BF990}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14875,7 +14869,7 @@
           <xdr:cNvPr id="87523" name="Rectangle 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB54BF6D-05BF-48FD-95D2-C73A8D2AB603}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D90D7F7-85BD-4D14-9D0B-325F17D816F5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14932,7 +14926,7 @@
         <xdr:cNvPr id="87490" name="AutoShape 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FDEE975-FDA5-4A0E-8D56-31DF3C41F09B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22381C48-BFDB-4C9E-918D-555B2DC04EE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14993,7 +14987,7 @@
         <xdr:cNvPr id="87491" name="Picture 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DECC61A-54B6-4922-93F3-99ECB66B2FC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60123A57-AA13-432F-9E0B-B9B97B795D60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15067,7 +15061,7 @@
         <xdr:cNvPr id="87492" name="Picture 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A6FE32-7FB0-4BD7-94AD-A8B9CF15CD2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCAE503D-5296-4CD1-BFC8-B9D5E5817FA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15141,7 +15135,7 @@
         <xdr:cNvPr id="87493" name="Picture 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D51806-38A3-45AE-98CD-CE3A66211689}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48AEA999-1797-47CE-8FB7-572DA24D296A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15220,7 +15214,7 @@
         <xdr:cNvPr id="90381" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F53A1A-23B1-49F5-B61C-E67F0D49621E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10707FF-EDCC-44C5-A2F1-0D6A8E834FC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15294,7 +15288,7 @@
         <xdr:cNvPr id="90382" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE38FD6-2F28-45B6-94AF-3042A89C6508}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78DCCEF-BB4A-4BC2-A32C-4AE46D7523FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15368,7 +15362,7 @@
         <xdr:cNvPr id="90383" name="Group 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A72489-9C91-41B4-998E-2F4A136345F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F998EB-0A46-48D6-87AE-3370951CEE40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15389,7 +15383,7 @@
           <xdr:cNvPr id="90384" name="AutoShape 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3849E54A-A2BB-44FE-9E3B-81EF5F14EA89}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B70D74F-9314-4CBE-B9CD-3C6C6BADF527}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15533,7 +15527,7 @@
           <xdr:cNvPr id="90387" name="Line 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BBB7DE4-9EBB-44B9-902A-3265D93DE41A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714A59EA-C8AF-4200-8FBA-1A52220B5CBD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15572,7 +15566,7 @@
           <xdr:cNvPr id="90388" name="Rectangle 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C32D85FF-D85F-47C7-ABAA-1C951CB39B31}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B999EF24-7314-4BD3-A99B-3A466CA8640A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15613,7 +15607,7 @@
           <xdr:cNvPr id="90389" name="Line 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07920A2-7176-4092-9D1F-23738E3068D4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD721846-5BB1-4A1A-9A56-6F477DE5F03C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15652,7 +15646,7 @@
           <xdr:cNvPr id="90390" name="Rectangle 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6924D1BE-C0BB-4721-A69F-B1E3DC3ACF53}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED32B9A6-0E68-4353-A77F-D9F47807B7C9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15693,7 +15687,7 @@
           <xdr:cNvPr id="90391" name="Line 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88495D7-034A-451C-9BC1-C83CBDE8F5D2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B12B847-704E-43B0-B76C-7B503103F16A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15732,7 +15726,7 @@
           <xdr:cNvPr id="90392" name="Rectangle 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AB6B53-92F7-47B0-B0BE-8BB1364547B3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EAAA9E8-DFF1-4C5C-B120-FECB0DA3BCD8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15773,7 +15767,7 @@
           <xdr:cNvPr id="90393" name="Line 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64FA2C8-30C8-45E4-9707-15D8A8C6276B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D419D368-A377-43AC-94CF-B4A86D6E1B4B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15812,7 +15806,7 @@
           <xdr:cNvPr id="90394" name="Rectangle 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2356823-5C4E-4FB2-A1AC-830383A9CB4C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF37DD5-4881-4D37-832E-4CC2060CB9E3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15853,7 +15847,7 @@
           <xdr:cNvPr id="90395" name="Line 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF892FDD-9B99-4E87-8D72-25D4C43B7D7B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4577C3B-9311-44FC-9393-D2AECCC83D4D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15892,7 +15886,7 @@
           <xdr:cNvPr id="90396" name="Rectangle 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5BD6042-836B-49D0-B838-2484D69A2BB1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8BD7F76-D0E1-4DAC-9FD7-C43F4E5541F5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15933,7 +15927,7 @@
           <xdr:cNvPr id="90397" name="Line 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC43AF85-C62C-4040-A955-B361293B7497}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F82BE5-8711-4FF7-B4C3-27E0A90E5F0F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15972,7 +15966,7 @@
           <xdr:cNvPr id="90398" name="Rectangle 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B1E634-D5A4-45EE-95A4-D056BF859AE0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0A59AC-8618-4D52-9B57-63E453287853}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16013,7 +16007,7 @@
           <xdr:cNvPr id="90399" name="Line 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D16D199-CBB0-420D-80B0-1430516B2A2F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100AE735-8848-4EBF-8686-376BC1D5D5D1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16052,7 +16046,7 @@
           <xdr:cNvPr id="90400" name="Rectangle 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F5CAF96-75DA-4720-BABA-5103510EBD1F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0C9379-23CA-4C1E-9F4A-1AA625A0A368}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16093,7 +16087,7 @@
           <xdr:cNvPr id="90401" name="Line 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1AD4CA-0D36-4DD5-ADBD-A5AECA011EEF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26E6E91E-5F55-48B1-BD67-8603262BC926}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16132,7 +16126,7 @@
           <xdr:cNvPr id="90402" name="Rectangle 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F3AC45F-4CDA-41A6-9970-CCF6B0EB32C9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E90F2B68-2E47-40AE-BE10-4EE4FFAED72F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16173,7 +16167,7 @@
           <xdr:cNvPr id="90403" name="Line 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D4E760-6E38-48ED-9A96-7A3F85C9BBC0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444C404C-3B0E-46A9-AB9F-CBE5F21B9CB6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16212,7 +16206,7 @@
           <xdr:cNvPr id="90404" name="Rectangle 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385BD8FB-36F2-4BDA-BB71-0C26CB5ED128}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{208E7F78-BC9D-41EB-A80D-EDE8D3C90DE2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16253,7 +16247,7 @@
           <xdr:cNvPr id="90405" name="Line 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04109EE5-BC14-4071-B259-1E4057F125ED}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE25B0F1-D184-412C-BBA4-045BA87CB374}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16292,7 +16286,7 @@
           <xdr:cNvPr id="90406" name="Rectangle 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32FEDBC0-F1CC-4681-A53D-578F1225A3E7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C193582E-3EC9-44B6-9DD4-64D3CE3C6435}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16333,7 +16327,7 @@
           <xdr:cNvPr id="90407" name="Line 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2904DD-6552-4722-A34C-09300417A102}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89E53EA7-3097-4009-AE4F-81CD7ECE0F56}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16372,7 +16366,7 @@
           <xdr:cNvPr id="90408" name="Rectangle 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC79078D-1614-4B13-92EA-EB4A258445D7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B707593-D49D-494B-A919-2B7CBDB0F700}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16413,7 +16407,7 @@
           <xdr:cNvPr id="90409" name="Line 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACAFEE7-2D53-4F7D-8F8C-CCCDF83874B7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F18C4D-0045-4008-AB95-D6C4C4C2251E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16452,7 +16446,7 @@
           <xdr:cNvPr id="90410" name="Rectangle 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3E842D-B4F4-4CC0-86E3-D90C45594703}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35C1645-8667-446F-843B-7BC2DED2EDF7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16493,7 +16487,7 @@
           <xdr:cNvPr id="90411" name="Line 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{573B6328-D5AD-4550-AB25-FD2B9D499290}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54555B3-D0A8-485B-8BAB-8129F71383B7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16532,7 +16526,7 @@
           <xdr:cNvPr id="90412" name="Rectangle 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E683EB09-8B02-4A03-983D-9470DCDA755F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E46921-6D0F-4833-90A5-3E7FAD17C62A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16573,7 +16567,7 @@
           <xdr:cNvPr id="90413" name="Rectangle 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161535DA-CCA0-4066-A1A9-F072C71DC6CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C90CDD9-891C-406C-9D1D-055ABC3857D4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16625,7 +16619,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5502CA92-165F-415E-B8DD-5AEDDA9C2633}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257E9312-E915-456B-BB1D-F57A2B34D1AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16668,7 +16662,7 @@
         <xdr:cNvPr id="68699" name="AutoShape 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E35D96A-0208-4141-B216-519C493F7B03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAECA658-79E0-4ED3-BFAE-2B1B0E68F2B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16729,7 +16723,7 @@
         <xdr:cNvPr id="68700" name="AutoShape 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6E424C-F29A-4A55-BDC1-BFE9239293A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB8CEBD5-E4E5-4169-9CA7-AA64C565838F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16795,7 +16789,7 @@
         <xdr:cNvPr id="92424" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07089C4A-7DD4-42BF-B517-435E58793197}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F3D8AC-52E0-4CA2-B71D-B682707A09D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16869,7 +16863,7 @@
         <xdr:cNvPr id="92425" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC05D1C-D875-4825-AD89-7361C463347F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB31387-A63E-41AD-B49E-C402426D7757}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16943,7 +16937,7 @@
         <xdr:cNvPr id="92426" name="Group 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F00317-FD13-4FAE-A250-52A85A091AD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808B05F8-9C14-41CE-9F2B-C3945E829FBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16964,7 +16958,7 @@
           <xdr:cNvPr id="92427" name="AutoShape 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDC88164-A615-49E6-9795-F92A7B930DFE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A692DED5-E199-4DFE-A154-34ECB66A409A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17124,7 +17118,7 @@
           <xdr:cNvPr id="92430" name="Line 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234A2966-7980-4CFF-83FA-62C25FEC40B7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9DC8B2E-EA26-4464-BE82-613E28F748BD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17163,7 +17157,7 @@
           <xdr:cNvPr id="92431" name="Rectangle 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2E6E03-26EA-4329-BAA4-A69B04A9A933}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502A9595-6321-4D43-9932-808EC7713762}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17204,7 +17198,7 @@
           <xdr:cNvPr id="92432" name="Line 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC77A4A-716E-4E57-A3FA-9D3D1A9CA311}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78223C03-5D80-45D0-B6B6-77B977EF0C94}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17243,7 +17237,7 @@
           <xdr:cNvPr id="92433" name="Rectangle 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{440D06E6-95E7-40B4-8664-805FCB0A2F91}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA34F33-17BA-4DB4-A6C7-7E8033826459}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17284,7 +17278,7 @@
           <xdr:cNvPr id="92434" name="Line 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8AC6A8-84AC-4BC8-A71E-46601BAAEB1E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70689E52-9FD5-4291-962F-4DA15F94331D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17323,7 +17317,7 @@
           <xdr:cNvPr id="92435" name="Rectangle 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B8BE16-059C-4DDC-B383-76A39294E86C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22426B0-45DC-4411-AAD4-70D2E4839AA7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17364,7 +17358,7 @@
           <xdr:cNvPr id="92436" name="Line 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223EF362-4DED-408B-B18C-2B33FBC9BC7E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B209F3F6-A57D-41B3-ACCD-9E393EA19B8E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17403,7 +17397,7 @@
           <xdr:cNvPr id="92437" name="Rectangle 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B939A7-689A-4D2B-B594-65A806228C13}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4036693D-DC0B-40AB-B4A1-EF8207AB1A1E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17444,7 +17438,7 @@
           <xdr:cNvPr id="92438" name="Line 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA093375-3D0E-4B44-9DEA-ED50DC04831D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6162462A-9B5D-4170-A2AF-61ED50DAB8FB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17483,7 +17477,7 @@
           <xdr:cNvPr id="92439" name="Rectangle 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35DA5C2E-7D06-49F2-A198-F40B2F0BC617}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5BC80B-A10B-4005-98BE-36480A39C175}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17524,7 +17518,7 @@
           <xdr:cNvPr id="92440" name="Line 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE6E06A-09F7-4E42-91C8-B7F549E74773}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E139660-308B-4146-BCF9-95301F3EDFC2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17563,7 +17557,7 @@
           <xdr:cNvPr id="92441" name="Rectangle 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61EBCD5E-CF7B-4D63-BB27-73D743BAA3C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1601DE3-DCA5-4385-AB4A-4E411E6DC664}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17604,7 +17598,7 @@
           <xdr:cNvPr id="92442" name="Line 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC42D9B-3D70-4E52-A6EA-4762256E6517}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC175D34-D172-4376-84BC-11476991AEA7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17643,7 +17637,7 @@
           <xdr:cNvPr id="92443" name="Rectangle 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1940A037-A5E3-4302-AC78-A22FE1D7D604}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89A4D5B-A30D-4A01-902C-5B68AD25141F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17684,7 +17678,7 @@
           <xdr:cNvPr id="92444" name="Line 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{014C281A-EB32-48E7-93E1-82B76FEC69B7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA5CE31-61EA-4137-975D-78489B3C3CC8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17723,7 +17717,7 @@
           <xdr:cNvPr id="92445" name="Rectangle 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1544672E-B114-4CBD-B5C8-04E0371D0A80}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02EAC989-FAF4-41F0-9BE1-7A4DF9D08B2F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17764,7 +17758,7 @@
           <xdr:cNvPr id="92446" name="Line 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97847527-5513-4ADB-85E8-D0FC232E87CD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B05536A8-8C53-4C6D-AF82-CD5641285554}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17803,7 +17797,7 @@
           <xdr:cNvPr id="92447" name="Rectangle 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D31503-40FF-4A56-B380-821A3716DAB7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77C58AA-9A6E-4513-9047-56F73A8991B6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17844,7 +17838,7 @@
           <xdr:cNvPr id="92448" name="Line 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC8269A-F467-462E-85CB-924AD7A2FD49}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{592E6031-1402-4C49-A909-B6DE48CE51CC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17883,7 +17877,7 @@
           <xdr:cNvPr id="92449" name="Rectangle 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78718779-8291-47BF-939D-2E4B68C285B2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80EE807-9EF6-4BA1-A7C2-9FDDC66436A6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17924,7 +17918,7 @@
           <xdr:cNvPr id="92450" name="Line 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A8C713-285B-4427-A339-98ECBA02C27B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA00D553-B8F9-482E-826B-119E75A46CAD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17963,7 +17957,7 @@
           <xdr:cNvPr id="92451" name="Rectangle 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523A4EBB-293B-4DCB-A1E0-A32B43B846D9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6C041F-34A0-47F2-879E-6B394C99E74D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18004,7 +17998,7 @@
           <xdr:cNvPr id="92452" name="Line 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E5DB2D-1038-494D-AC38-7B785E6D6A89}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5C8FE9-A36B-42CE-85CB-4BA8B5EAB724}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18043,7 +18037,7 @@
           <xdr:cNvPr id="92453" name="Rectangle 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B452ACA6-E140-4A93-967C-5A1F6CF41DB8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97C343B-8EDF-4CB5-9A69-22E017561F1D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18084,7 +18078,7 @@
           <xdr:cNvPr id="92454" name="Line 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198F4683-7A7A-46CB-AC86-FB538398CF09}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7378F7-9E36-41B6-ABAA-9E944C31A5CC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18123,7 +18117,7 @@
           <xdr:cNvPr id="92455" name="Rectangle 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C599E9D-765C-4323-85CA-8CE0110456FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39726B29-8895-434A-BED6-6826605BA985}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18164,7 +18158,7 @@
           <xdr:cNvPr id="92456" name="Rectangle 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2AAD56-9F6E-4D61-B61D-CB212FB65AB2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB7ABD32-FC97-481A-83D4-2B8B27330D9E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18226,7 +18220,7 @@
         <xdr:cNvPr id="91414" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033CCAC8-EFDA-4EE0-8104-B8618E916363}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F15FA1-37E7-4754-827E-B95F4D7BD888}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18300,7 +18294,7 @@
         <xdr:cNvPr id="91415" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2DDFBC-24AA-41DF-A1B4-B8C1B63C59B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E36451-ABB3-4D4F-A3EB-09A75405B69F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18374,7 +18368,7 @@
         <xdr:cNvPr id="91416" name="Group 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683FE369-F6A1-44D7-9CFD-2771BD150D4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00F49B3-36E7-41C6-8CAA-516E80EFF5BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18395,7 +18389,7 @@
           <xdr:cNvPr id="91417" name="AutoShape 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFEA5FD1-2B2E-4044-929A-2F807FF94A09}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE90B81F-939B-4917-B29B-C65F81096BD3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18539,7 +18533,7 @@
           <xdr:cNvPr id="91420" name="Line 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5C0733-C988-467F-AB8C-2A6C62C36E04}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73CA9C1-44C2-429C-9365-295E2139B79F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18578,7 +18572,7 @@
           <xdr:cNvPr id="91421" name="Rectangle 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8106B783-F68A-4FDA-83C5-FBCBC63D5785}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9859D57-F56D-4675-9B2E-8DBC9E18137B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18619,7 +18613,7 @@
           <xdr:cNvPr id="91422" name="Line 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A062925-4311-4904-8580-A1D57B1EF223}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2FCBF9-B210-452C-8D3D-BE75818F5046}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18658,7 +18652,7 @@
           <xdr:cNvPr id="91423" name="Rectangle 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53CFDE02-9D7A-43AC-8E28-D94FF5C78D20}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C87DDE2-BBD5-412B-BD1E-B485C83F90BC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18699,7 +18693,7 @@
           <xdr:cNvPr id="91424" name="Line 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090A5DF6-40B9-4C57-A694-38A02C2B452A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04B68AE1-A045-4482-BDFC-CD5F97F31580}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18738,7 +18732,7 @@
           <xdr:cNvPr id="91425" name="Rectangle 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754D01B1-178F-41A5-8287-8AC26DEE43F6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B27C21E4-2D07-434B-A0B3-751D86EDE6F1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18779,7 +18773,7 @@
           <xdr:cNvPr id="91426" name="Line 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B85C002-059B-40BB-A29F-C4A4CC8FD279}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E07D2AF-DB42-44AB-B5E3-85DA0187E802}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18818,7 +18812,7 @@
           <xdr:cNvPr id="91427" name="Rectangle 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D6AD06-4B7E-4A57-AF3D-10DBB07E47EE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEBE665A-8266-43A9-A161-9A6FF2C76853}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18859,7 +18853,7 @@
           <xdr:cNvPr id="91428" name="Line 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CE97A4-248C-4431-B66B-4840BDC60F02}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5A6B5A-CF85-44B0-91EE-424235A09119}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18898,7 +18892,7 @@
           <xdr:cNvPr id="91429" name="Rectangle 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{528F8EF3-DE88-42CB-ABE0-476FAC9B2C27}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360ED35F-213A-442F-9653-848CD8ED5EEE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18939,7 +18933,7 @@
           <xdr:cNvPr id="91430" name="Line 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C25566EB-17A1-4A96-8FDD-A4421501CEB2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989A86B2-ED33-4677-9790-E66CC1702172}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18978,7 +18972,7 @@
           <xdr:cNvPr id="91431" name="Rectangle 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07119FD9-C809-492E-A910-E453C8925D1F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2B14F6-AE4B-4440-8A1E-E75F996248A0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19019,7 +19013,7 @@
           <xdr:cNvPr id="91432" name="Line 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4C6763-62D0-45A7-8423-F479BACDD877}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF936C4-F862-4D07-BD56-205CD4F77BAA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19058,7 +19052,7 @@
           <xdr:cNvPr id="91433" name="Rectangle 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69213E05-6190-4288-8F7A-FB03A2103D53}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F67E337-8F60-45F3-8DC5-34E3E025434B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19099,7 +19093,7 @@
           <xdr:cNvPr id="91434" name="Line 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C84614-BDC3-4BFB-9A00-40568FED0DDE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2A9055-4F48-4C28-9A97-889BB2464E35}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19138,7 +19132,7 @@
           <xdr:cNvPr id="91435" name="Rectangle 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB960F5-5BFB-447F-8155-2ED6FC20D7D9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{598FB464-3B15-47AC-A81C-2886F2EA2332}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19179,7 +19173,7 @@
           <xdr:cNvPr id="91436" name="Line 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D85733FD-D322-48D2-8723-70B35124E580}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C9A9DC6-BF79-4255-86D0-2FEF39C2E927}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19218,7 +19212,7 @@
           <xdr:cNvPr id="91437" name="Rectangle 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DA10CA-848D-440C-82C7-083D8F1EF4E7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B81318E-A80E-446C-8FF0-47F4A171CC09}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19259,7 +19253,7 @@
           <xdr:cNvPr id="91438" name="Line 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE8FDF43-36B2-44FC-9F3D-DECC382C3278}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5249B48-73C9-4F01-A869-68104EC566EE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19298,7 +19292,7 @@
           <xdr:cNvPr id="91439" name="Rectangle 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E387093B-04D2-4A49-A035-B3CE5033FEAC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73705E5C-ABA6-4BB1-808D-947265F90F5D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19339,7 +19333,7 @@
           <xdr:cNvPr id="91440" name="Line 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4ED3190-9C58-4C95-8DFA-DB244C68108C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E92015EA-F78A-45CF-8623-18F34A720B73}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19378,7 +19372,7 @@
           <xdr:cNvPr id="91441" name="Rectangle 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD63ACE4-8D5A-48A2-BF71-FA0F722836B2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E414980-15B4-4035-A826-88FFF8D96EDF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19419,7 +19413,7 @@
           <xdr:cNvPr id="91442" name="Line 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C4DF85-6342-4648-AABF-AD370F11E33D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DF26F5-21E4-4593-9B53-83EE0D3CA29B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19458,7 +19452,7 @@
           <xdr:cNvPr id="91443" name="Rectangle 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A5D725-FC44-44A5-BFDA-8E3C35A90E68}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A0B53F-42E3-4726-B122-909A0664F574}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19499,7 +19493,7 @@
           <xdr:cNvPr id="91444" name="Line 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BFD8A65-FE70-4ABA-8E8B-41C236D02CBC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0AA530B-FE60-4603-9CD8-E55A84A4484B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19538,7 +19532,7 @@
           <xdr:cNvPr id="91445" name="Rectangle 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF60AF9-304A-47CC-982C-E33B99A14D51}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6277377-307C-49F6-93A5-56EBC56EAC12}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19579,7 +19573,7 @@
           <xdr:cNvPr id="91446" name="Rectangle 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2EC4179-ADE3-4D52-B1BE-6639B16121FE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0F096F-6711-4CB0-BFA1-15C6E152A85A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19941,7 +19935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -20127,14 +20121,14 @@
     </row>
     <row r="12" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="19"/>
-      <c r="C12" s="223" t="s">
+      <c r="C12" s="226" t="s">
         <v>714</v>
       </c>
-      <c r="D12" s="224"/>
-      <c r="E12" s="224"/>
-      <c r="F12" s="224"/>
-      <c r="G12" s="224"/>
-      <c r="H12" s="225"/>
+      <c r="D12" s="227"/>
+      <c r="E12" s="227"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="228"/>
     </row>
     <row r="13" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="19"/>
@@ -20147,14 +20141,14 @@
     </row>
     <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B14" s="19"/>
-      <c r="C14" s="237" t="s">
+      <c r="C14" s="229" t="s">
         <v>530</v>
       </c>
-      <c r="D14" s="229"/>
-      <c r="E14" s="229"/>
-      <c r="F14" s="229"/>
-      <c r="G14" s="229"/>
-      <c r="H14" s="230"/>
+      <c r="D14" s="230"/>
+      <c r="E14" s="230"/>
+      <c r="F14" s="230"/>
+      <c r="G14" s="230"/>
+      <c r="H14" s="231"/>
     </row>
     <row r="15" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="19"/>
@@ -20167,14 +20161,14 @@
     </row>
     <row r="16" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="31"/>
-      <c r="C16" s="226" t="s">
+      <c r="C16" s="232" t="s">
         <v>600</v>
       </c>
-      <c r="D16" s="227"/>
-      <c r="E16" s="227"/>
-      <c r="F16" s="227"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="228"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="233"/>
+      <c r="G16" s="233"/>
+      <c r="H16" s="234"/>
       <c r="I16" s="90"/>
     </row>
     <row r="17" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -20189,14 +20183,14 @@
     </row>
     <row r="18" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="31"/>
-      <c r="C18" s="226" t="s">
+      <c r="C18" s="232" t="s">
         <v>601</v>
       </c>
-      <c r="D18" s="227"/>
-      <c r="E18" s="227"/>
-      <c r="F18" s="227"/>
-      <c r="G18" s="227"/>
-      <c r="H18" s="228"/>
+      <c r="D18" s="233"/>
+      <c r="E18" s="233"/>
+      <c r="F18" s="233"/>
+      <c r="G18" s="233"/>
+      <c r="H18" s="234"/>
       <c r="I18" s="90"/>
     </row>
     <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -20211,14 +20205,14 @@
     </row>
     <row r="20" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="31"/>
-      <c r="C20" s="226" t="s">
+      <c r="C20" s="232" t="s">
         <v>602</v>
       </c>
-      <c r="D20" s="227"/>
-      <c r="E20" s="227"/>
-      <c r="F20" s="227"/>
-      <c r="G20" s="227"/>
-      <c r="H20" s="228"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="233"/>
+      <c r="G20" s="233"/>
+      <c r="H20" s="234"/>
       <c r="I20" s="90"/>
     </row>
     <row r="21" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -20233,14 +20227,14 @@
     </row>
     <row r="22" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="31"/>
-      <c r="C22" s="220" t="s">
+      <c r="C22" s="223" t="s">
         <v>684</v>
       </c>
-      <c r="D22" s="221"/>
-      <c r="E22" s="221"/>
-      <c r="F22" s="221"/>
-      <c r="G22" s="221"/>
-      <c r="H22" s="222"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="224"/>
+      <c r="F22" s="224"/>
+      <c r="G22" s="224"/>
+      <c r="H22" s="225"/>
       <c r="I22" s="90"/>
     </row>
     <row r="23" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -22919,11 +22913,11 @@
       <c r="C129" s="130"/>
       <c r="E129" s="132"/>
       <c r="F129" s="132"/>
-      <c r="G129" s="234" t="s">
+      <c r="G129" s="219" t="s">
         <v>615</v>
       </c>
-      <c r="H129" s="235"/>
-      <c r="I129" s="236"/>
+      <c r="H129" s="220"/>
+      <c r="I129" s="221"/>
     </row>
     <row r="130" spans="1:14" s="129" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B130" s="133" t="s">
@@ -22972,11 +22966,11 @@
       <c r="A133" s="133" t="s">
         <v>334</v>
       </c>
-      <c r="B133" s="219" t="s">
+      <c r="B133" s="222" t="s">
         <v>421</v>
       </c>
-      <c r="C133" s="219"/>
-      <c r="D133" s="219"/>
+      <c r="C133" s="222"/>
+      <c r="D133" s="222"/>
       <c r="E133" s="140"/>
       <c r="F133" s="140"/>
       <c r="G133" s="137"/>
@@ -22996,11 +22990,11 @@
       <c r="I134" s="145"/>
     </row>
     <row r="135" spans="1:14" s="133" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="219" t="s">
+      <c r="B135" s="222" t="s">
         <v>420</v>
       </c>
-      <c r="C135" s="219"/>
-      <c r="D135" s="219"/>
+      <c r="C135" s="222"/>
+      <c r="D135" s="222"/>
       <c r="E135" s="140"/>
       <c r="F135" s="140"/>
       <c r="G135" s="137"/>
@@ -23025,11 +23019,11 @@
       <c r="N136" s="130"/>
     </row>
     <row r="137" spans="1:14" s="133" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="219" t="s">
+      <c r="B137" s="222" t="s">
         <v>421</v>
       </c>
-      <c r="C137" s="219"/>
-      <c r="D137" s="219"/>
+      <c r="C137" s="222"/>
+      <c r="D137" s="222"/>
       <c r="E137" s="140"/>
       <c r="F137" s="140"/>
       <c r="G137" s="149" t="s">
@@ -23061,13 +23055,13 @@
       <c r="N138" s="130"/>
     </row>
     <row r="139" spans="1:14" s="133" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="232" t="s">
+      <c r="B139" s="236" t="s">
         <v>503</v>
       </c>
-      <c r="C139" s="232"/>
-      <c r="D139" s="232"/>
-      <c r="E139" s="233"/>
-      <c r="F139" s="233"/>
+      <c r="C139" s="236"/>
+      <c r="D139" s="236"/>
+      <c r="E139" s="237"/>
+      <c r="F139" s="237"/>
       <c r="G139" s="154"/>
       <c r="H139" s="155"/>
       <c r="I139" s="147"/>
@@ -23115,14 +23109,14 @@
     </row>
     <row r="143" spans="1:14" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143" s="19"/>
-      <c r="C143" s="223" t="s">
+      <c r="C143" s="226" t="s">
         <v>530</v>
       </c>
-      <c r="D143" s="224"/>
-      <c r="E143" s="224"/>
-      <c r="F143" s="224"/>
-      <c r="G143" s="224"/>
-      <c r="H143" s="225"/>
+      <c r="D143" s="227"/>
+      <c r="E143" s="227"/>
+      <c r="F143" s="227"/>
+      <c r="G143" s="227"/>
+      <c r="H143" s="228"/>
       <c r="K143" s="141" t="s">
         <v>425</v>
       </c>
@@ -23143,14 +23137,14 @@
     </row>
     <row r="145" spans="1:12" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145" s="31"/>
-      <c r="C145" s="226" t="s">
+      <c r="C145" s="232" t="s">
         <v>600</v>
       </c>
-      <c r="D145" s="227"/>
-      <c r="E145" s="227"/>
-      <c r="F145" s="227"/>
-      <c r="G145" s="227"/>
-      <c r="H145" s="228"/>
+      <c r="D145" s="233"/>
+      <c r="E145" s="233"/>
+      <c r="F145" s="233"/>
+      <c r="G145" s="233"/>
+      <c r="H145" s="234"/>
       <c r="I145" s="90"/>
     </row>
     <row r="146" spans="1:12" s="7" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
@@ -23170,14 +23164,14 @@
     <row r="147" spans="1:12" s="7" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147"/>
       <c r="B147" s="31"/>
-      <c r="C147" s="226" t="s">
+      <c r="C147" s="232" t="s">
         <v>601</v>
       </c>
-      <c r="D147" s="227"/>
-      <c r="E147" s="227"/>
-      <c r="F147" s="227"/>
-      <c r="G147" s="227"/>
-      <c r="H147" s="228"/>
+      <c r="D147" s="233"/>
+      <c r="E147" s="233"/>
+      <c r="F147" s="233"/>
+      <c r="G147" s="233"/>
+      <c r="H147" s="234"/>
       <c r="I147" s="90"/>
       <c r="J147"/>
       <c r="K147"/>
@@ -23200,14 +23194,14 @@
     <row r="149" spans="1:12" s="7" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149"/>
       <c r="B149" s="31"/>
-      <c r="C149" s="226" t="s">
+      <c r="C149" s="232" t="s">
         <v>602</v>
       </c>
-      <c r="D149" s="227"/>
-      <c r="E149" s="227"/>
-      <c r="F149" s="227"/>
-      <c r="G149" s="227"/>
-      <c r="H149" s="228"/>
+      <c r="D149" s="233"/>
+      <c r="E149" s="233"/>
+      <c r="F149" s="233"/>
+      <c r="G149" s="233"/>
+      <c r="H149" s="234"/>
       <c r="I149" s="90"/>
       <c r="J149"/>
       <c r="K149"/>
@@ -23230,14 +23224,14 @@
     <row r="151" spans="1:12" s="7" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151"/>
       <c r="B151" s="31"/>
-      <c r="C151" s="226" t="s">
+      <c r="C151" s="232" t="s">
         <v>609</v>
       </c>
-      <c r="D151" s="229"/>
-      <c r="E151" s="229"/>
-      <c r="F151" s="229"/>
-      <c r="G151" s="229"/>
-      <c r="H151" s="230"/>
+      <c r="D151" s="230"/>
+      <c r="E151" s="230"/>
+      <c r="F151" s="230"/>
+      <c r="G151" s="230"/>
+      <c r="H151" s="231"/>
       <c r="I151" s="90"/>
       <c r="J151"/>
       <c r="K151"/>
@@ -23246,12 +23240,12 @@
     <row r="152" spans="1:12" s="7" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152"/>
       <c r="B152" s="31"/>
-      <c r="C152" s="226"/>
-      <c r="D152" s="231"/>
-      <c r="E152" s="231"/>
-      <c r="F152" s="231"/>
-      <c r="G152" s="231"/>
-      <c r="H152" s="228"/>
+      <c r="C152" s="232"/>
+      <c r="D152" s="235"/>
+      <c r="E152" s="235"/>
+      <c r="F152" s="235"/>
+      <c r="G152" s="235"/>
+      <c r="H152" s="234"/>
       <c r="I152" s="90"/>
       <c r="J152"/>
       <c r="K152"/>
@@ -23260,14 +23254,14 @@
     <row r="153" spans="1:12" s="7" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153"/>
       <c r="B153" s="31"/>
-      <c r="C153" s="220" t="s">
+      <c r="C153" s="223" t="s">
         <v>608</v>
       </c>
-      <c r="D153" s="221"/>
-      <c r="E153" s="221"/>
-      <c r="F153" s="221"/>
-      <c r="G153" s="221"/>
-      <c r="H153" s="222"/>
+      <c r="D153" s="224"/>
+      <c r="E153" s="224"/>
+      <c r="F153" s="224"/>
+      <c r="G153" s="224"/>
+      <c r="H153" s="225"/>
       <c r="I153" s="90"/>
       <c r="J153"/>
       <c r="K153"/>
@@ -23278,6 +23272,15 @@
     <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="C153:H153"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C147:H147"/>
+    <mergeCell ref="C149:H149"/>
+    <mergeCell ref="C151:H151"/>
+    <mergeCell ref="C152:H152"/>
+    <mergeCell ref="B139:F139"/>
     <mergeCell ref="G129:I129"/>
     <mergeCell ref="B133:D133"/>
     <mergeCell ref="B135:D135"/>
@@ -23287,15 +23290,6 @@
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C20:H20"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="C153:H153"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="C145:H145"/>
-    <mergeCell ref="C147:H147"/>
-    <mergeCell ref="C149:H149"/>
-    <mergeCell ref="C151:H151"/>
-    <mergeCell ref="C152:H152"/>
-    <mergeCell ref="B139:F139"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.35433070866141736" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -23306,7 +23300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -24010,50 +24004,50 @@
     </row>
     <row r="13" spans="2:51" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="19"/>
-      <c r="C13" s="223" t="s">
+      <c r="C13" s="226" t="s">
         <v>530</v>
       </c>
-      <c r="D13" s="224"/>
-      <c r="E13" s="224"/>
-      <c r="F13" s="224"/>
-      <c r="G13" s="224"/>
-      <c r="H13" s="224"/>
-      <c r="I13" s="224"/>
-      <c r="J13" s="224"/>
-      <c r="K13" s="224"/>
-      <c r="L13" s="224"/>
-      <c r="M13" s="224"/>
-      <c r="N13" s="224"/>
-      <c r="O13" s="224"/>
-      <c r="P13" s="224"/>
-      <c r="Q13" s="224"/>
-      <c r="R13" s="224"/>
-      <c r="S13" s="224"/>
-      <c r="T13" s="224"/>
-      <c r="U13" s="224"/>
-      <c r="V13" s="224"/>
-      <c r="W13" s="224"/>
-      <c r="X13" s="224"/>
-      <c r="Y13" s="224"/>
-      <c r="Z13" s="224"/>
-      <c r="AA13" s="224"/>
-      <c r="AB13" s="224"/>
-      <c r="AC13" s="224"/>
-      <c r="AD13" s="224"/>
-      <c r="AE13" s="224"/>
-      <c r="AF13" s="224"/>
-      <c r="AG13" s="224"/>
-      <c r="AH13" s="224"/>
-      <c r="AI13" s="224"/>
-      <c r="AJ13" s="224"/>
-      <c r="AK13" s="224"/>
-      <c r="AL13" s="224"/>
-      <c r="AM13" s="224"/>
-      <c r="AN13" s="224"/>
-      <c r="AO13" s="224"/>
-      <c r="AP13" s="224"/>
-      <c r="AQ13" s="224"/>
-      <c r="AR13" s="225"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="227"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="227"/>
+      <c r="I13" s="227"/>
+      <c r="J13" s="227"/>
+      <c r="K13" s="227"/>
+      <c r="L13" s="227"/>
+      <c r="M13" s="227"/>
+      <c r="N13" s="227"/>
+      <c r="O13" s="227"/>
+      <c r="P13" s="227"/>
+      <c r="Q13" s="227"/>
+      <c r="R13" s="227"/>
+      <c r="S13" s="227"/>
+      <c r="T13" s="227"/>
+      <c r="U13" s="227"/>
+      <c r="V13" s="227"/>
+      <c r="W13" s="227"/>
+      <c r="X13" s="227"/>
+      <c r="Y13" s="227"/>
+      <c r="Z13" s="227"/>
+      <c r="AA13" s="227"/>
+      <c r="AB13" s="227"/>
+      <c r="AC13" s="227"/>
+      <c r="AD13" s="227"/>
+      <c r="AE13" s="227"/>
+      <c r="AF13" s="227"/>
+      <c r="AG13" s="227"/>
+      <c r="AH13" s="227"/>
+      <c r="AI13" s="227"/>
+      <c r="AJ13" s="227"/>
+      <c r="AK13" s="227"/>
+      <c r="AL13" s="227"/>
+      <c r="AM13" s="227"/>
+      <c r="AN13" s="227"/>
+      <c r="AO13" s="227"/>
+      <c r="AP13" s="227"/>
+      <c r="AQ13" s="227"/>
+      <c r="AR13" s="228"/>
     </row>
     <row r="14" spans="2:51" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="19"/>
@@ -24102,50 +24096,50 @@
     </row>
     <row r="15" spans="2:51" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="31"/>
-      <c r="C15" s="226" t="s">
+      <c r="C15" s="232" t="s">
         <v>600</v>
       </c>
-      <c r="D15" s="227"/>
-      <c r="E15" s="227"/>
-      <c r="F15" s="227"/>
-      <c r="G15" s="227"/>
-      <c r="H15" s="227"/>
-      <c r="I15" s="227"/>
-      <c r="J15" s="227"/>
-      <c r="K15" s="227"/>
-      <c r="L15" s="227"/>
-      <c r="M15" s="227"/>
-      <c r="N15" s="227"/>
-      <c r="O15" s="227"/>
-      <c r="P15" s="227"/>
-      <c r="Q15" s="227"/>
-      <c r="R15" s="227"/>
-      <c r="S15" s="227"/>
-      <c r="T15" s="227"/>
-      <c r="U15" s="227"/>
-      <c r="V15" s="227"/>
-      <c r="W15" s="227"/>
-      <c r="X15" s="227"/>
-      <c r="Y15" s="227"/>
-      <c r="Z15" s="227"/>
-      <c r="AA15" s="227"/>
-      <c r="AB15" s="227"/>
-      <c r="AC15" s="227"/>
-      <c r="AD15" s="227"/>
-      <c r="AE15" s="227"/>
-      <c r="AF15" s="227"/>
-      <c r="AG15" s="227"/>
-      <c r="AH15" s="227"/>
-      <c r="AI15" s="227"/>
-      <c r="AJ15" s="227"/>
-      <c r="AK15" s="227"/>
-      <c r="AL15" s="227"/>
-      <c r="AM15" s="227"/>
-      <c r="AN15" s="227"/>
-      <c r="AO15" s="227"/>
-      <c r="AP15" s="227"/>
-      <c r="AQ15" s="227"/>
-      <c r="AR15" s="228"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="233"/>
+      <c r="F15" s="233"/>
+      <c r="G15" s="233"/>
+      <c r="H15" s="233"/>
+      <c r="I15" s="233"/>
+      <c r="J15" s="233"/>
+      <c r="K15" s="233"/>
+      <c r="L15" s="233"/>
+      <c r="M15" s="233"/>
+      <c r="N15" s="233"/>
+      <c r="O15" s="233"/>
+      <c r="P15" s="233"/>
+      <c r="Q15" s="233"/>
+      <c r="R15" s="233"/>
+      <c r="S15" s="233"/>
+      <c r="T15" s="233"/>
+      <c r="U15" s="233"/>
+      <c r="V15" s="233"/>
+      <c r="W15" s="233"/>
+      <c r="X15" s="233"/>
+      <c r="Y15" s="233"/>
+      <c r="Z15" s="233"/>
+      <c r="AA15" s="233"/>
+      <c r="AB15" s="233"/>
+      <c r="AC15" s="233"/>
+      <c r="AD15" s="233"/>
+      <c r="AE15" s="233"/>
+      <c r="AF15" s="233"/>
+      <c r="AG15" s="233"/>
+      <c r="AH15" s="233"/>
+      <c r="AI15" s="233"/>
+      <c r="AJ15" s="233"/>
+      <c r="AK15" s="233"/>
+      <c r="AL15" s="233"/>
+      <c r="AM15" s="233"/>
+      <c r="AN15" s="233"/>
+      <c r="AO15" s="233"/>
+      <c r="AP15" s="233"/>
+      <c r="AQ15" s="233"/>
+      <c r="AR15" s="234"/>
       <c r="AS15" s="90"/>
     </row>
     <row r="16" spans="2:51" ht="18.75" x14ac:dyDescent="0.3">
@@ -24196,50 +24190,50 @@
     </row>
     <row r="17" spans="1:51" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
-      <c r="C17" s="226" t="s">
+      <c r="C17" s="232" t="s">
         <v>601</v>
       </c>
-      <c r="D17" s="227"/>
-      <c r="E17" s="227"/>
-      <c r="F17" s="227"/>
-      <c r="G17" s="227"/>
-      <c r="H17" s="227"/>
-      <c r="I17" s="227"/>
-      <c r="J17" s="227"/>
-      <c r="K17" s="227"/>
-      <c r="L17" s="227"/>
-      <c r="M17" s="227"/>
-      <c r="N17" s="227"/>
-      <c r="O17" s="227"/>
-      <c r="P17" s="227"/>
-      <c r="Q17" s="227"/>
-      <c r="R17" s="227"/>
-      <c r="S17" s="227"/>
-      <c r="T17" s="227"/>
-      <c r="U17" s="227"/>
-      <c r="V17" s="227"/>
-      <c r="W17" s="227"/>
-      <c r="X17" s="227"/>
-      <c r="Y17" s="227"/>
-      <c r="Z17" s="227"/>
-      <c r="AA17" s="227"/>
-      <c r="AB17" s="227"/>
-      <c r="AC17" s="227"/>
-      <c r="AD17" s="227"/>
-      <c r="AE17" s="227"/>
-      <c r="AF17" s="227"/>
-      <c r="AG17" s="227"/>
-      <c r="AH17" s="227"/>
-      <c r="AI17" s="227"/>
-      <c r="AJ17" s="227"/>
-      <c r="AK17" s="227"/>
-      <c r="AL17" s="227"/>
-      <c r="AM17" s="227"/>
-      <c r="AN17" s="227"/>
-      <c r="AO17" s="227"/>
-      <c r="AP17" s="227"/>
-      <c r="AQ17" s="227"/>
-      <c r="AR17" s="228"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="233"/>
+      <c r="G17" s="233"/>
+      <c r="H17" s="233"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="233"/>
+      <c r="K17" s="233"/>
+      <c r="L17" s="233"/>
+      <c r="M17" s="233"/>
+      <c r="N17" s="233"/>
+      <c r="O17" s="233"/>
+      <c r="P17" s="233"/>
+      <c r="Q17" s="233"/>
+      <c r="R17" s="233"/>
+      <c r="S17" s="233"/>
+      <c r="T17" s="233"/>
+      <c r="U17" s="233"/>
+      <c r="V17" s="233"/>
+      <c r="W17" s="233"/>
+      <c r="X17" s="233"/>
+      <c r="Y17" s="233"/>
+      <c r="Z17" s="233"/>
+      <c r="AA17" s="233"/>
+      <c r="AB17" s="233"/>
+      <c r="AC17" s="233"/>
+      <c r="AD17" s="233"/>
+      <c r="AE17" s="233"/>
+      <c r="AF17" s="233"/>
+      <c r="AG17" s="233"/>
+      <c r="AH17" s="233"/>
+      <c r="AI17" s="233"/>
+      <c r="AJ17" s="233"/>
+      <c r="AK17" s="233"/>
+      <c r="AL17" s="233"/>
+      <c r="AM17" s="233"/>
+      <c r="AN17" s="233"/>
+      <c r="AO17" s="233"/>
+      <c r="AP17" s="233"/>
+      <c r="AQ17" s="233"/>
+      <c r="AR17" s="234"/>
       <c r="AS17" s="90"/>
     </row>
     <row r="18" spans="1:51" ht="18.75" x14ac:dyDescent="0.3">
@@ -24290,50 +24284,50 @@
     </row>
     <row r="19" spans="1:51" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="31"/>
-      <c r="C19" s="226" t="s">
+      <c r="C19" s="232" t="s">
         <v>602</v>
       </c>
-      <c r="D19" s="227"/>
-      <c r="E19" s="227"/>
-      <c r="F19" s="227"/>
-      <c r="G19" s="227"/>
-      <c r="H19" s="227"/>
-      <c r="I19" s="227"/>
-      <c r="J19" s="227"/>
-      <c r="K19" s="227"/>
-      <c r="L19" s="227"/>
-      <c r="M19" s="227"/>
-      <c r="N19" s="227"/>
-      <c r="O19" s="227"/>
-      <c r="P19" s="227"/>
-      <c r="Q19" s="227"/>
-      <c r="R19" s="227"/>
-      <c r="S19" s="227"/>
-      <c r="T19" s="227"/>
-      <c r="U19" s="227"/>
-      <c r="V19" s="227"/>
-      <c r="W19" s="227"/>
-      <c r="X19" s="227"/>
-      <c r="Y19" s="227"/>
-      <c r="Z19" s="227"/>
-      <c r="AA19" s="227"/>
-      <c r="AB19" s="227"/>
-      <c r="AC19" s="227"/>
-      <c r="AD19" s="227"/>
-      <c r="AE19" s="227"/>
-      <c r="AF19" s="227"/>
-      <c r="AG19" s="227"/>
-      <c r="AH19" s="227"/>
-      <c r="AI19" s="227"/>
-      <c r="AJ19" s="227"/>
-      <c r="AK19" s="227"/>
-      <c r="AL19" s="227"/>
-      <c r="AM19" s="227"/>
-      <c r="AN19" s="227"/>
-      <c r="AO19" s="227"/>
-      <c r="AP19" s="227"/>
-      <c r="AQ19" s="227"/>
-      <c r="AR19" s="228"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="233"/>
+      <c r="G19" s="233"/>
+      <c r="H19" s="233"/>
+      <c r="I19" s="233"/>
+      <c r="J19" s="233"/>
+      <c r="K19" s="233"/>
+      <c r="L19" s="233"/>
+      <c r="M19" s="233"/>
+      <c r="N19" s="233"/>
+      <c r="O19" s="233"/>
+      <c r="P19" s="233"/>
+      <c r="Q19" s="233"/>
+      <c r="R19" s="233"/>
+      <c r="S19" s="233"/>
+      <c r="T19" s="233"/>
+      <c r="U19" s="233"/>
+      <c r="V19" s="233"/>
+      <c r="W19" s="233"/>
+      <c r="X19" s="233"/>
+      <c r="Y19" s="233"/>
+      <c r="Z19" s="233"/>
+      <c r="AA19" s="233"/>
+      <c r="AB19" s="233"/>
+      <c r="AC19" s="233"/>
+      <c r="AD19" s="233"/>
+      <c r="AE19" s="233"/>
+      <c r="AF19" s="233"/>
+      <c r="AG19" s="233"/>
+      <c r="AH19" s="233"/>
+      <c r="AI19" s="233"/>
+      <c r="AJ19" s="233"/>
+      <c r="AK19" s="233"/>
+      <c r="AL19" s="233"/>
+      <c r="AM19" s="233"/>
+      <c r="AN19" s="233"/>
+      <c r="AO19" s="233"/>
+      <c r="AP19" s="233"/>
+      <c r="AQ19" s="233"/>
+      <c r="AR19" s="234"/>
       <c r="AS19" s="90"/>
     </row>
     <row r="20" spans="1:51" ht="18.75" x14ac:dyDescent="0.3">
@@ -24384,50 +24378,50 @@
     </row>
     <row r="21" spans="1:51" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="31"/>
-      <c r="C21" s="220" t="s">
+      <c r="C21" s="223" t="s">
         <v>603</v>
       </c>
-      <c r="D21" s="221"/>
-      <c r="E21" s="221"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="221"/>
-      <c r="H21" s="221"/>
-      <c r="I21" s="221"/>
-      <c r="J21" s="221"/>
-      <c r="K21" s="221"/>
-      <c r="L21" s="221"/>
-      <c r="M21" s="221"/>
-      <c r="N21" s="221"/>
-      <c r="O21" s="221"/>
-      <c r="P21" s="221"/>
-      <c r="Q21" s="221"/>
-      <c r="R21" s="221"/>
-      <c r="S21" s="221"/>
-      <c r="T21" s="221"/>
-      <c r="U21" s="221"/>
-      <c r="V21" s="221"/>
-      <c r="W21" s="221"/>
-      <c r="X21" s="221"/>
-      <c r="Y21" s="221"/>
-      <c r="Z21" s="221"/>
-      <c r="AA21" s="221"/>
-      <c r="AB21" s="221"/>
-      <c r="AC21" s="221"/>
-      <c r="AD21" s="221"/>
-      <c r="AE21" s="221"/>
-      <c r="AF21" s="221"/>
-      <c r="AG21" s="221"/>
-      <c r="AH21" s="221"/>
-      <c r="AI21" s="221"/>
-      <c r="AJ21" s="221"/>
-      <c r="AK21" s="221"/>
-      <c r="AL21" s="221"/>
-      <c r="AM21" s="221"/>
-      <c r="AN21" s="221"/>
-      <c r="AO21" s="221"/>
-      <c r="AP21" s="221"/>
-      <c r="AQ21" s="221"/>
-      <c r="AR21" s="222"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="224"/>
+      <c r="G21" s="224"/>
+      <c r="H21" s="224"/>
+      <c r="I21" s="224"/>
+      <c r="J21" s="224"/>
+      <c r="K21" s="224"/>
+      <c r="L21" s="224"/>
+      <c r="M21" s="224"/>
+      <c r="N21" s="224"/>
+      <c r="O21" s="224"/>
+      <c r="P21" s="224"/>
+      <c r="Q21" s="224"/>
+      <c r="R21" s="224"/>
+      <c r="S21" s="224"/>
+      <c r="T21" s="224"/>
+      <c r="U21" s="224"/>
+      <c r="V21" s="224"/>
+      <c r="W21" s="224"/>
+      <c r="X21" s="224"/>
+      <c r="Y21" s="224"/>
+      <c r="Z21" s="224"/>
+      <c r="AA21" s="224"/>
+      <c r="AB21" s="224"/>
+      <c r="AC21" s="224"/>
+      <c r="AD21" s="224"/>
+      <c r="AE21" s="224"/>
+      <c r="AF21" s="224"/>
+      <c r="AG21" s="224"/>
+      <c r="AH21" s="224"/>
+      <c r="AI21" s="224"/>
+      <c r="AJ21" s="224"/>
+      <c r="AK21" s="224"/>
+      <c r="AL21" s="224"/>
+      <c r="AM21" s="224"/>
+      <c r="AN21" s="224"/>
+      <c r="AO21" s="224"/>
+      <c r="AP21" s="224"/>
+      <c r="AQ21" s="224"/>
+      <c r="AR21" s="225"/>
       <c r="AS21" s="90"/>
     </row>
     <row r="22" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -25094,52 +25088,52 @@
       <c r="AU31" s="10"/>
     </row>
     <row r="32" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="240" t="s">
+      <c r="B32" s="251" t="s">
         <v>513</v>
       </c>
-      <c r="C32" s="240"/>
-      <c r="D32" s="240"/>
-      <c r="E32" s="240"/>
-      <c r="F32" s="240"/>
-      <c r="G32" s="240"/>
-      <c r="H32" s="240"/>
-      <c r="I32" s="240"/>
-      <c r="J32" s="240"/>
-      <c r="K32" s="240"/>
-      <c r="L32" s="240"/>
-      <c r="M32" s="240"/>
-      <c r="N32" s="240"/>
-      <c r="O32" s="240"/>
-      <c r="P32" s="240"/>
-      <c r="Q32" s="240"/>
-      <c r="R32" s="240"/>
-      <c r="S32" s="240"/>
-      <c r="T32" s="240"/>
-      <c r="U32" s="240"/>
-      <c r="V32" s="240"/>
-      <c r="W32" s="240"/>
-      <c r="X32" s="240"/>
-      <c r="Y32" s="240"/>
-      <c r="Z32" s="240"/>
-      <c r="AA32" s="240"/>
-      <c r="AB32" s="240"/>
-      <c r="AC32" s="240"/>
-      <c r="AD32" s="240"/>
-      <c r="AE32" s="240"/>
-      <c r="AF32" s="240"/>
-      <c r="AG32" s="240"/>
-      <c r="AH32" s="240"/>
-      <c r="AI32" s="240"/>
-      <c r="AJ32" s="240"/>
-      <c r="AK32" s="240"/>
-      <c r="AL32" s="240"/>
-      <c r="AM32" s="240"/>
-      <c r="AN32" s="240"/>
-      <c r="AO32" s="240"/>
-      <c r="AP32" s="240"/>
-      <c r="AQ32" s="240"/>
-      <c r="AR32" s="240"/>
-      <c r="AS32" s="240"/>
+      <c r="C32" s="251"/>
+      <c r="D32" s="251"/>
+      <c r="E32" s="251"/>
+      <c r="F32" s="251"/>
+      <c r="G32" s="251"/>
+      <c r="H32" s="251"/>
+      <c r="I32" s="251"/>
+      <c r="J32" s="251"/>
+      <c r="K32" s="251"/>
+      <c r="L32" s="251"/>
+      <c r="M32" s="251"/>
+      <c r="N32" s="251"/>
+      <c r="O32" s="251"/>
+      <c r="P32" s="251"/>
+      <c r="Q32" s="251"/>
+      <c r="R32" s="251"/>
+      <c r="S32" s="251"/>
+      <c r="T32" s="251"/>
+      <c r="U32" s="251"/>
+      <c r="V32" s="251"/>
+      <c r="W32" s="251"/>
+      <c r="X32" s="251"/>
+      <c r="Y32" s="251"/>
+      <c r="Z32" s="251"/>
+      <c r="AA32" s="251"/>
+      <c r="AB32" s="251"/>
+      <c r="AC32" s="251"/>
+      <c r="AD32" s="251"/>
+      <c r="AE32" s="251"/>
+      <c r="AF32" s="251"/>
+      <c r="AG32" s="251"/>
+      <c r="AH32" s="251"/>
+      <c r="AI32" s="251"/>
+      <c r="AJ32" s="251"/>
+      <c r="AK32" s="251"/>
+      <c r="AL32" s="251"/>
+      <c r="AM32" s="251"/>
+      <c r="AN32" s="251"/>
+      <c r="AO32" s="251"/>
+      <c r="AP32" s="251"/>
+      <c r="AQ32" s="251"/>
+      <c r="AR32" s="251"/>
+      <c r="AS32" s="251"/>
       <c r="AT32" s="8"/>
       <c r="AU32" s="8"/>
     </row>
@@ -27174,10 +27168,10 @@
       <c r="AV67" s="35"/>
     </row>
     <row r="68" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="244" t="s">
+      <c r="B68" s="242" t="s">
         <v>437</v>
       </c>
-      <c r="C68" s="245"/>
+      <c r="C68" s="243"/>
       <c r="D68" s="31"/>
       <c r="E68" s="31"/>
       <c r="F68" s="31"/>
@@ -39807,36 +39801,36 @@
       <c r="A260" t="s">
         <v>334</v>
       </c>
-      <c r="B260" s="246" t="s">
+      <c r="B260" s="244" t="s">
         <v>421</v>
       </c>
-      <c r="C260" s="246"/>
-      <c r="D260" s="246"/>
-      <c r="E260" s="246"/>
-      <c r="F260" s="246"/>
-      <c r="G260" s="246"/>
-      <c r="H260" s="246"/>
-      <c r="I260" s="246"/>
-      <c r="J260" s="246"/>
-      <c r="K260" s="246"/>
-      <c r="L260" s="246"/>
-      <c r="M260" s="246"/>
-      <c r="N260" s="246"/>
-      <c r="O260" s="246"/>
-      <c r="P260" s="246"/>
-      <c r="Q260" s="246"/>
-      <c r="R260" s="246"/>
-      <c r="S260" s="246"/>
-      <c r="T260" s="246"/>
-      <c r="U260" s="246"/>
-      <c r="V260" s="246"/>
-      <c r="W260" s="246"/>
-      <c r="X260" s="246"/>
-      <c r="Y260" s="246"/>
-      <c r="Z260" s="246"/>
-      <c r="AA260" s="246"/>
-      <c r="AB260" s="246"/>
-      <c r="AC260" s="246"/>
+      <c r="C260" s="244"/>
+      <c r="D260" s="244"/>
+      <c r="E260" s="244"/>
+      <c r="F260" s="244"/>
+      <c r="G260" s="244"/>
+      <c r="H260" s="244"/>
+      <c r="I260" s="244"/>
+      <c r="J260" s="244"/>
+      <c r="K260" s="244"/>
+      <c r="L260" s="244"/>
+      <c r="M260" s="244"/>
+      <c r="N260" s="244"/>
+      <c r="O260" s="244"/>
+      <c r="P260" s="244"/>
+      <c r="Q260" s="244"/>
+      <c r="R260" s="244"/>
+      <c r="S260" s="244"/>
+      <c r="T260" s="244"/>
+      <c r="U260" s="244"/>
+      <c r="V260" s="244"/>
+      <c r="W260" s="244"/>
+      <c r="X260" s="244"/>
+      <c r="Y260" s="244"/>
+      <c r="Z260" s="244"/>
+      <c r="AA260" s="244"/>
+      <c r="AB260" s="244"/>
+      <c r="AC260" s="244"/>
       <c r="AD260" s="19"/>
       <c r="AE260" s="19"/>
       <c r="AF260" s="19"/>
@@ -39896,36 +39890,36 @@
       <c r="AS261" s="20"/>
     </row>
     <row r="262" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="246" t="s">
+      <c r="B262" s="244" t="s">
         <v>420</v>
       </c>
-      <c r="C262" s="246"/>
-      <c r="D262" s="246"/>
-      <c r="E262" s="246"/>
-      <c r="F262" s="246"/>
-      <c r="G262" s="246"/>
-      <c r="H262" s="246"/>
-      <c r="I262" s="246"/>
-      <c r="J262" s="246"/>
-      <c r="K262" s="246"/>
-      <c r="L262" s="246"/>
-      <c r="M262" s="246"/>
-      <c r="N262" s="246"/>
-      <c r="O262" s="246"/>
-      <c r="P262" s="246"/>
-      <c r="Q262" s="246"/>
-      <c r="R262" s="246"/>
-      <c r="S262" s="246"/>
-      <c r="T262" s="246"/>
-      <c r="U262" s="246"/>
-      <c r="V262" s="246"/>
-      <c r="W262" s="246"/>
-      <c r="X262" s="246"/>
-      <c r="Y262" s="246"/>
-      <c r="Z262" s="246"/>
-      <c r="AA262" s="246"/>
-      <c r="AB262" s="246"/>
-      <c r="AC262" s="246"/>
+      <c r="C262" s="244"/>
+      <c r="D262" s="244"/>
+      <c r="E262" s="244"/>
+      <c r="F262" s="244"/>
+      <c r="G262" s="244"/>
+      <c r="H262" s="244"/>
+      <c r="I262" s="244"/>
+      <c r="J262" s="244"/>
+      <c r="K262" s="244"/>
+      <c r="L262" s="244"/>
+      <c r="M262" s="244"/>
+      <c r="N262" s="244"/>
+      <c r="O262" s="244"/>
+      <c r="P262" s="244"/>
+      <c r="Q262" s="244"/>
+      <c r="R262" s="244"/>
+      <c r="S262" s="244"/>
+      <c r="T262" s="244"/>
+      <c r="U262" s="244"/>
+      <c r="V262" s="244"/>
+      <c r="W262" s="244"/>
+      <c r="X262" s="244"/>
+      <c r="Y262" s="244"/>
+      <c r="Z262" s="244"/>
+      <c r="AA262" s="244"/>
+      <c r="AB262" s="244"/>
+      <c r="AC262" s="244"/>
       <c r="AD262" s="19"/>
       <c r="AE262" s="19"/>
       <c r="AF262" s="19"/>
@@ -39984,36 +39978,36 @@
       <c r="AS263" s="20"/>
     </row>
     <row r="264" spans="1:47" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="246" t="s">
+      <c r="B264" s="244" t="s">
         <v>421</v>
       </c>
-      <c r="C264" s="246"/>
-      <c r="D264" s="246"/>
-      <c r="E264" s="246"/>
-      <c r="F264" s="246"/>
-      <c r="G264" s="246"/>
-      <c r="H264" s="246"/>
-      <c r="I264" s="246"/>
-      <c r="J264" s="246"/>
-      <c r="K264" s="246"/>
-      <c r="L264" s="246"/>
-      <c r="M264" s="246"/>
-      <c r="N264" s="246"/>
-      <c r="O264" s="246"/>
-      <c r="P264" s="246"/>
-      <c r="Q264" s="246"/>
-      <c r="R264" s="246"/>
-      <c r="S264" s="246"/>
-      <c r="T264" s="246"/>
-      <c r="U264" s="246"/>
-      <c r="V264" s="246"/>
-      <c r="W264" s="246"/>
-      <c r="X264" s="246"/>
-      <c r="Y264" s="246"/>
-      <c r="Z264" s="246"/>
-      <c r="AA264" s="246"/>
-      <c r="AB264" s="246"/>
-      <c r="AC264" s="246"/>
+      <c r="C264" s="244"/>
+      <c r="D264" s="244"/>
+      <c r="E264" s="244"/>
+      <c r="F264" s="244"/>
+      <c r="G264" s="244"/>
+      <c r="H264" s="244"/>
+      <c r="I264" s="244"/>
+      <c r="J264" s="244"/>
+      <c r="K264" s="244"/>
+      <c r="L264" s="244"/>
+      <c r="M264" s="244"/>
+      <c r="N264" s="244"/>
+      <c r="O264" s="244"/>
+      <c r="P264" s="244"/>
+      <c r="Q264" s="244"/>
+      <c r="R264" s="244"/>
+      <c r="S264" s="244"/>
+      <c r="T264" s="244"/>
+      <c r="U264" s="244"/>
+      <c r="V264" s="244"/>
+      <c r="W264" s="244"/>
+      <c r="X264" s="244"/>
+      <c r="Y264" s="244"/>
+      <c r="Z264" s="244"/>
+      <c r="AA264" s="244"/>
+      <c r="AB264" s="244"/>
+      <c r="AC264" s="244"/>
       <c r="AD264" s="19"/>
       <c r="AE264" s="19"/>
       <c r="AF264" s="19"/>
@@ -40074,50 +40068,50 @@
       <c r="AS265" s="20"/>
     </row>
     <row r="266" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B266" s="246" t="s">
+      <c r="B266" s="244" t="s">
         <v>503</v>
       </c>
-      <c r="C266" s="246"/>
-      <c r="D266" s="246"/>
-      <c r="E266" s="247"/>
-      <c r="F266" s="247"/>
-      <c r="G266" s="247"/>
-      <c r="H266" s="247"/>
-      <c r="I266" s="247"/>
-      <c r="J266" s="247"/>
-      <c r="K266" s="247"/>
-      <c r="L266" s="247"/>
-      <c r="M266" s="247"/>
-      <c r="N266" s="247"/>
-      <c r="O266" s="247"/>
-      <c r="P266" s="247"/>
-      <c r="Q266" s="247"/>
-      <c r="R266" s="247"/>
-      <c r="S266" s="247"/>
-      <c r="T266" s="247"/>
-      <c r="U266" s="247"/>
-      <c r="V266" s="247"/>
-      <c r="W266" s="247"/>
-      <c r="X266" s="247"/>
-      <c r="Y266" s="247"/>
-      <c r="Z266" s="247"/>
-      <c r="AA266" s="247"/>
-      <c r="AB266" s="247"/>
-      <c r="AC266" s="247"/>
-      <c r="AD266" s="247"/>
-      <c r="AE266" s="247"/>
-      <c r="AF266" s="247"/>
-      <c r="AG266" s="247"/>
-      <c r="AH266" s="247"/>
-      <c r="AI266" s="247"/>
-      <c r="AJ266" s="247"/>
-      <c r="AK266" s="247"/>
-      <c r="AL266" s="247"/>
-      <c r="AM266" s="247"/>
-      <c r="AN266" s="247"/>
-      <c r="AO266" s="247"/>
-      <c r="AP266" s="247"/>
-      <c r="AQ266" s="248"/>
+      <c r="C266" s="244"/>
+      <c r="D266" s="244"/>
+      <c r="E266" s="246"/>
+      <c r="F266" s="246"/>
+      <c r="G266" s="246"/>
+      <c r="H266" s="246"/>
+      <c r="I266" s="246"/>
+      <c r="J266" s="246"/>
+      <c r="K266" s="246"/>
+      <c r="L266" s="246"/>
+      <c r="M266" s="246"/>
+      <c r="N266" s="246"/>
+      <c r="O266" s="246"/>
+      <c r="P266" s="246"/>
+      <c r="Q266" s="246"/>
+      <c r="R266" s="246"/>
+      <c r="S266" s="246"/>
+      <c r="T266" s="246"/>
+      <c r="U266" s="246"/>
+      <c r="V266" s="246"/>
+      <c r="W266" s="246"/>
+      <c r="X266" s="246"/>
+      <c r="Y266" s="246"/>
+      <c r="Z266" s="246"/>
+      <c r="AA266" s="246"/>
+      <c r="AB266" s="246"/>
+      <c r="AC266" s="246"/>
+      <c r="AD266" s="246"/>
+      <c r="AE266" s="246"/>
+      <c r="AF266" s="246"/>
+      <c r="AG266" s="246"/>
+      <c r="AH266" s="246"/>
+      <c r="AI266" s="246"/>
+      <c r="AJ266" s="246"/>
+      <c r="AK266" s="246"/>
+      <c r="AL266" s="246"/>
+      <c r="AM266" s="246"/>
+      <c r="AN266" s="246"/>
+      <c r="AO266" s="246"/>
+      <c r="AP266" s="246"/>
+      <c r="AQ266" s="247"/>
       <c r="AR266" s="76" t="s">
         <v>426</v>
       </c>
@@ -40249,50 +40243,50 @@
     </row>
     <row r="270" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B270" s="19"/>
-      <c r="C270" s="249" t="s">
+      <c r="C270" s="248" t="s">
         <v>530</v>
       </c>
-      <c r="D270" s="250"/>
-      <c r="E270" s="250"/>
-      <c r="F270" s="250"/>
-      <c r="G270" s="250"/>
-      <c r="H270" s="250"/>
-      <c r="I270" s="250"/>
-      <c r="J270" s="250"/>
-      <c r="K270" s="250"/>
-      <c r="L270" s="250"/>
-      <c r="M270" s="250"/>
-      <c r="N270" s="250"/>
-      <c r="O270" s="250"/>
-      <c r="P270" s="250"/>
-      <c r="Q270" s="250"/>
-      <c r="R270" s="250"/>
-      <c r="S270" s="250"/>
-      <c r="T270" s="250"/>
-      <c r="U270" s="250"/>
-      <c r="V270" s="250"/>
-      <c r="W270" s="250"/>
-      <c r="X270" s="250"/>
-      <c r="Y270" s="250"/>
-      <c r="Z270" s="250"/>
-      <c r="AA270" s="250"/>
-      <c r="AB270" s="250"/>
-      <c r="AC270" s="250"/>
-      <c r="AD270" s="250"/>
-      <c r="AE270" s="250"/>
-      <c r="AF270" s="250"/>
-      <c r="AG270" s="250"/>
-      <c r="AH270" s="250"/>
-      <c r="AI270" s="250"/>
-      <c r="AJ270" s="250"/>
-      <c r="AK270" s="250"/>
-      <c r="AL270" s="250"/>
-      <c r="AM270" s="250"/>
-      <c r="AN270" s="250"/>
-      <c r="AO270" s="250"/>
-      <c r="AP270" s="250"/>
-      <c r="AQ270" s="250"/>
-      <c r="AR270" s="251"/>
+      <c r="D270" s="249"/>
+      <c r="E270" s="249"/>
+      <c r="F270" s="249"/>
+      <c r="G270" s="249"/>
+      <c r="H270" s="249"/>
+      <c r="I270" s="249"/>
+      <c r="J270" s="249"/>
+      <c r="K270" s="249"/>
+      <c r="L270" s="249"/>
+      <c r="M270" s="249"/>
+      <c r="N270" s="249"/>
+      <c r="O270" s="249"/>
+      <c r="P270" s="249"/>
+      <c r="Q270" s="249"/>
+      <c r="R270" s="249"/>
+      <c r="S270" s="249"/>
+      <c r="T270" s="249"/>
+      <c r="U270" s="249"/>
+      <c r="V270" s="249"/>
+      <c r="W270" s="249"/>
+      <c r="X270" s="249"/>
+      <c r="Y270" s="249"/>
+      <c r="Z270" s="249"/>
+      <c r="AA270" s="249"/>
+      <c r="AB270" s="249"/>
+      <c r="AC270" s="249"/>
+      <c r="AD270" s="249"/>
+      <c r="AE270" s="249"/>
+      <c r="AF270" s="249"/>
+      <c r="AG270" s="249"/>
+      <c r="AH270" s="249"/>
+      <c r="AI270" s="249"/>
+      <c r="AJ270" s="249"/>
+      <c r="AK270" s="249"/>
+      <c r="AL270" s="249"/>
+      <c r="AM270" s="249"/>
+      <c r="AN270" s="249"/>
+      <c r="AO270" s="249"/>
+      <c r="AP270" s="249"/>
+      <c r="AQ270" s="249"/>
+      <c r="AR270" s="250"/>
     </row>
     <row r="271" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B271" s="19"/>
@@ -40344,47 +40338,47 @@
       <c r="C272" s="238" t="s">
         <v>543</v>
       </c>
-      <c r="D272" s="239"/>
-      <c r="E272" s="239"/>
-      <c r="F272" s="239"/>
-      <c r="G272" s="239"/>
-      <c r="H272" s="239"/>
-      <c r="I272" s="239"/>
-      <c r="J272" s="239"/>
-      <c r="K272" s="239"/>
-      <c r="L272" s="239"/>
-      <c r="M272" s="239"/>
-      <c r="N272" s="239"/>
-      <c r="O272" s="239"/>
-      <c r="P272" s="239"/>
-      <c r="Q272" s="239"/>
-      <c r="R272" s="239"/>
-      <c r="S272" s="239"/>
-      <c r="T272" s="239"/>
-      <c r="U272" s="239"/>
-      <c r="V272" s="239"/>
-      <c r="W272" s="239"/>
-      <c r="X272" s="239"/>
-      <c r="Y272" s="239"/>
-      <c r="Z272" s="239"/>
-      <c r="AA272" s="239"/>
-      <c r="AB272" s="239"/>
-      <c r="AC272" s="239"/>
-      <c r="AD272" s="239"/>
-      <c r="AE272" s="239"/>
-      <c r="AF272" s="239"/>
-      <c r="AG272" s="239"/>
-      <c r="AH272" s="239"/>
-      <c r="AI272" s="239"/>
-      <c r="AJ272" s="239"/>
-      <c r="AK272" s="239"/>
-      <c r="AL272" s="239"/>
-      <c r="AM272" s="239"/>
-      <c r="AN272" s="239"/>
-      <c r="AO272" s="239"/>
-      <c r="AP272" s="239"/>
-      <c r="AQ272" s="239"/>
-      <c r="AR272" s="230"/>
+      <c r="D272" s="245"/>
+      <c r="E272" s="245"/>
+      <c r="F272" s="245"/>
+      <c r="G272" s="245"/>
+      <c r="H272" s="245"/>
+      <c r="I272" s="245"/>
+      <c r="J272" s="245"/>
+      <c r="K272" s="245"/>
+      <c r="L272" s="245"/>
+      <c r="M272" s="245"/>
+      <c r="N272" s="245"/>
+      <c r="O272" s="245"/>
+      <c r="P272" s="245"/>
+      <c r="Q272" s="245"/>
+      <c r="R272" s="245"/>
+      <c r="S272" s="245"/>
+      <c r="T272" s="245"/>
+      <c r="U272" s="245"/>
+      <c r="V272" s="245"/>
+      <c r="W272" s="245"/>
+      <c r="X272" s="245"/>
+      <c r="Y272" s="245"/>
+      <c r="Z272" s="245"/>
+      <c r="AA272" s="245"/>
+      <c r="AB272" s="245"/>
+      <c r="AC272" s="245"/>
+      <c r="AD272" s="245"/>
+      <c r="AE272" s="245"/>
+      <c r="AF272" s="245"/>
+      <c r="AG272" s="245"/>
+      <c r="AH272" s="245"/>
+      <c r="AI272" s="245"/>
+      <c r="AJ272" s="245"/>
+      <c r="AK272" s="245"/>
+      <c r="AL272" s="245"/>
+      <c r="AM272" s="245"/>
+      <c r="AN272" s="245"/>
+      <c r="AO272" s="245"/>
+      <c r="AP272" s="245"/>
+      <c r="AQ272" s="245"/>
+      <c r="AR272" s="231"/>
       <c r="AS272" s="90"/>
     </row>
     <row r="273" spans="2:45" x14ac:dyDescent="0.25">
@@ -40438,47 +40432,47 @@
       <c r="C274" s="238" t="s">
         <v>542</v>
       </c>
-      <c r="D274" s="239"/>
-      <c r="E274" s="239"/>
-      <c r="F274" s="239"/>
-      <c r="G274" s="239"/>
-      <c r="H274" s="239"/>
-      <c r="I274" s="239"/>
-      <c r="J274" s="239"/>
-      <c r="K274" s="239"/>
-      <c r="L274" s="239"/>
-      <c r="M274" s="239"/>
-      <c r="N274" s="239"/>
-      <c r="O274" s="239"/>
-      <c r="P274" s="239"/>
-      <c r="Q274" s="239"/>
-      <c r="R274" s="239"/>
-      <c r="S274" s="239"/>
-      <c r="T274" s="239"/>
-      <c r="U274" s="239"/>
-      <c r="V274" s="239"/>
-      <c r="W274" s="239"/>
-      <c r="X274" s="239"/>
-      <c r="Y274" s="239"/>
-      <c r="Z274" s="239"/>
-      <c r="AA274" s="239"/>
-      <c r="AB274" s="239"/>
-      <c r="AC274" s="239"/>
-      <c r="AD274" s="239"/>
-      <c r="AE274" s="239"/>
-      <c r="AF274" s="239"/>
-      <c r="AG274" s="239"/>
-      <c r="AH274" s="239"/>
-      <c r="AI274" s="239"/>
-      <c r="AJ274" s="239"/>
-      <c r="AK274" s="239"/>
-      <c r="AL274" s="239"/>
-      <c r="AM274" s="239"/>
-      <c r="AN274" s="239"/>
-      <c r="AO274" s="239"/>
-      <c r="AP274" s="239"/>
-      <c r="AQ274" s="239"/>
-      <c r="AR274" s="230"/>
+      <c r="D274" s="245"/>
+      <c r="E274" s="245"/>
+      <c r="F274" s="245"/>
+      <c r="G274" s="245"/>
+      <c r="H274" s="245"/>
+      <c r="I274" s="245"/>
+      <c r="J274" s="245"/>
+      <c r="K274" s="245"/>
+      <c r="L274" s="245"/>
+      <c r="M274" s="245"/>
+      <c r="N274" s="245"/>
+      <c r="O274" s="245"/>
+      <c r="P274" s="245"/>
+      <c r="Q274" s="245"/>
+      <c r="R274" s="245"/>
+      <c r="S274" s="245"/>
+      <c r="T274" s="245"/>
+      <c r="U274" s="245"/>
+      <c r="V274" s="245"/>
+      <c r="W274" s="245"/>
+      <c r="X274" s="245"/>
+      <c r="Y274" s="245"/>
+      <c r="Z274" s="245"/>
+      <c r="AA274" s="245"/>
+      <c r="AB274" s="245"/>
+      <c r="AC274" s="245"/>
+      <c r="AD274" s="245"/>
+      <c r="AE274" s="245"/>
+      <c r="AF274" s="245"/>
+      <c r="AG274" s="245"/>
+      <c r="AH274" s="245"/>
+      <c r="AI274" s="245"/>
+      <c r="AJ274" s="245"/>
+      <c r="AK274" s="245"/>
+      <c r="AL274" s="245"/>
+      <c r="AM274" s="245"/>
+      <c r="AN274" s="245"/>
+      <c r="AO274" s="245"/>
+      <c r="AP274" s="245"/>
+      <c r="AQ274" s="245"/>
+      <c r="AR274" s="231"/>
       <c r="AS274" s="90"/>
     </row>
     <row r="275" spans="2:45" x14ac:dyDescent="0.25">
@@ -40532,145 +40526,151 @@
       <c r="C276" s="238" t="s">
         <v>531</v>
       </c>
-      <c r="D276" s="239"/>
-      <c r="E276" s="239"/>
-      <c r="F276" s="239"/>
-      <c r="G276" s="239"/>
-      <c r="H276" s="239"/>
-      <c r="I276" s="239"/>
-      <c r="J276" s="239"/>
-      <c r="K276" s="239"/>
-      <c r="L276" s="239"/>
-      <c r="M276" s="239"/>
-      <c r="N276" s="239"/>
-      <c r="O276" s="239"/>
-      <c r="P276" s="239"/>
-      <c r="Q276" s="239"/>
-      <c r="R276" s="239"/>
-      <c r="S276" s="239"/>
-      <c r="T276" s="239"/>
-      <c r="U276" s="239"/>
-      <c r="V276" s="239"/>
-      <c r="W276" s="239"/>
-      <c r="X276" s="239"/>
-      <c r="Y276" s="239"/>
-      <c r="Z276" s="239"/>
-      <c r="AA276" s="239"/>
-      <c r="AB276" s="239"/>
-      <c r="AC276" s="239"/>
-      <c r="AD276" s="239"/>
-      <c r="AE276" s="239"/>
-      <c r="AF276" s="239"/>
-      <c r="AG276" s="239"/>
-      <c r="AH276" s="239"/>
-      <c r="AI276" s="239"/>
-      <c r="AJ276" s="239"/>
-      <c r="AK276" s="239"/>
-      <c r="AL276" s="239"/>
-      <c r="AM276" s="239"/>
-      <c r="AN276" s="239"/>
-      <c r="AO276" s="239"/>
-      <c r="AP276" s="239"/>
-      <c r="AQ276" s="239"/>
-      <c r="AR276" s="230"/>
+      <c r="D276" s="245"/>
+      <c r="E276" s="245"/>
+      <c r="F276" s="245"/>
+      <c r="G276" s="245"/>
+      <c r="H276" s="245"/>
+      <c r="I276" s="245"/>
+      <c r="J276" s="245"/>
+      <c r="K276" s="245"/>
+      <c r="L276" s="245"/>
+      <c r="M276" s="245"/>
+      <c r="N276" s="245"/>
+      <c r="O276" s="245"/>
+      <c r="P276" s="245"/>
+      <c r="Q276" s="245"/>
+      <c r="R276" s="245"/>
+      <c r="S276" s="245"/>
+      <c r="T276" s="245"/>
+      <c r="U276" s="245"/>
+      <c r="V276" s="245"/>
+      <c r="W276" s="245"/>
+      <c r="X276" s="245"/>
+      <c r="Y276" s="245"/>
+      <c r="Z276" s="245"/>
+      <c r="AA276" s="245"/>
+      <c r="AB276" s="245"/>
+      <c r="AC276" s="245"/>
+      <c r="AD276" s="245"/>
+      <c r="AE276" s="245"/>
+      <c r="AF276" s="245"/>
+      <c r="AG276" s="245"/>
+      <c r="AH276" s="245"/>
+      <c r="AI276" s="245"/>
+      <c r="AJ276" s="245"/>
+      <c r="AK276" s="245"/>
+      <c r="AL276" s="245"/>
+      <c r="AM276" s="245"/>
+      <c r="AN276" s="245"/>
+      <c r="AO276" s="245"/>
+      <c r="AP276" s="245"/>
+      <c r="AQ276" s="245"/>
+      <c r="AR276" s="231"/>
       <c r="AS276" s="90"/>
     </row>
     <row r="277" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B277" s="31"/>
       <c r="C277" s="238"/>
-      <c r="D277" s="229"/>
-      <c r="E277" s="229"/>
-      <c r="F277" s="229"/>
-      <c r="G277" s="229"/>
-      <c r="H277" s="229"/>
-      <c r="I277" s="229"/>
-      <c r="J277" s="229"/>
-      <c r="K277" s="229"/>
-      <c r="L277" s="229"/>
-      <c r="M277" s="229"/>
-      <c r="N277" s="229"/>
-      <c r="O277" s="229"/>
-      <c r="P277" s="229"/>
-      <c r="Q277" s="229"/>
-      <c r="R277" s="229"/>
-      <c r="S277" s="229"/>
-      <c r="T277" s="229"/>
-      <c r="U277" s="229"/>
-      <c r="V277" s="229"/>
-      <c r="W277" s="229"/>
-      <c r="X277" s="229"/>
-      <c r="Y277" s="229"/>
-      <c r="Z277" s="229"/>
-      <c r="AA277" s="229"/>
-      <c r="AB277" s="229"/>
-      <c r="AC277" s="229"/>
-      <c r="AD277" s="229"/>
-      <c r="AE277" s="229"/>
-      <c r="AF277" s="229"/>
-      <c r="AG277" s="229"/>
-      <c r="AH277" s="229"/>
-      <c r="AI277" s="229"/>
-      <c r="AJ277" s="229"/>
-      <c r="AK277" s="229"/>
-      <c r="AL277" s="229"/>
-      <c r="AM277" s="229"/>
-      <c r="AN277" s="229"/>
-      <c r="AO277" s="229"/>
-      <c r="AP277" s="229"/>
-      <c r="AQ277" s="229"/>
-      <c r="AR277" s="230"/>
+      <c r="D277" s="230"/>
+      <c r="E277" s="230"/>
+      <c r="F277" s="230"/>
+      <c r="G277" s="230"/>
+      <c r="H277" s="230"/>
+      <c r="I277" s="230"/>
+      <c r="J277" s="230"/>
+      <c r="K277" s="230"/>
+      <c r="L277" s="230"/>
+      <c r="M277" s="230"/>
+      <c r="N277" s="230"/>
+      <c r="O277" s="230"/>
+      <c r="P277" s="230"/>
+      <c r="Q277" s="230"/>
+      <c r="R277" s="230"/>
+      <c r="S277" s="230"/>
+      <c r="T277" s="230"/>
+      <c r="U277" s="230"/>
+      <c r="V277" s="230"/>
+      <c r="W277" s="230"/>
+      <c r="X277" s="230"/>
+      <c r="Y277" s="230"/>
+      <c r="Z277" s="230"/>
+      <c r="AA277" s="230"/>
+      <c r="AB277" s="230"/>
+      <c r="AC277" s="230"/>
+      <c r="AD277" s="230"/>
+      <c r="AE277" s="230"/>
+      <c r="AF277" s="230"/>
+      <c r="AG277" s="230"/>
+      <c r="AH277" s="230"/>
+      <c r="AI277" s="230"/>
+      <c r="AJ277" s="230"/>
+      <c r="AK277" s="230"/>
+      <c r="AL277" s="230"/>
+      <c r="AM277" s="230"/>
+      <c r="AN277" s="230"/>
+      <c r="AO277" s="230"/>
+      <c r="AP277" s="230"/>
+      <c r="AQ277" s="230"/>
+      <c r="AR277" s="231"/>
       <c r="AS277" s="90"/>
     </row>
     <row r="278" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B278" s="31"/>
-      <c r="C278" s="241" t="s">
+      <c r="C278" s="239" t="s">
         <v>545</v>
       </c>
-      <c r="D278" s="242"/>
-      <c r="E278" s="242"/>
-      <c r="F278" s="242"/>
-      <c r="G278" s="242"/>
-      <c r="H278" s="242"/>
-      <c r="I278" s="242"/>
-      <c r="J278" s="242"/>
-      <c r="K278" s="242"/>
-      <c r="L278" s="242"/>
-      <c r="M278" s="242"/>
-      <c r="N278" s="242"/>
-      <c r="O278" s="242"/>
-      <c r="P278" s="242"/>
-      <c r="Q278" s="242"/>
-      <c r="R278" s="242"/>
-      <c r="S278" s="242"/>
-      <c r="T278" s="242"/>
-      <c r="U278" s="242"/>
-      <c r="V278" s="242"/>
-      <c r="W278" s="242"/>
-      <c r="X278" s="242"/>
-      <c r="Y278" s="242"/>
-      <c r="Z278" s="242"/>
-      <c r="AA278" s="242"/>
-      <c r="AB278" s="242"/>
-      <c r="AC278" s="242"/>
-      <c r="AD278" s="242"/>
-      <c r="AE278" s="242"/>
-      <c r="AF278" s="242"/>
-      <c r="AG278" s="242"/>
-      <c r="AH278" s="242"/>
-      <c r="AI278" s="242"/>
-      <c r="AJ278" s="242"/>
-      <c r="AK278" s="242"/>
-      <c r="AL278" s="242"/>
-      <c r="AM278" s="242"/>
-      <c r="AN278" s="242"/>
-      <c r="AO278" s="242"/>
-      <c r="AP278" s="242"/>
-      <c r="AQ278" s="242"/>
-      <c r="AR278" s="243"/>
+      <c r="D278" s="240"/>
+      <c r="E278" s="240"/>
+      <c r="F278" s="240"/>
+      <c r="G278" s="240"/>
+      <c r="H278" s="240"/>
+      <c r="I278" s="240"/>
+      <c r="J278" s="240"/>
+      <c r="K278" s="240"/>
+      <c r="L278" s="240"/>
+      <c r="M278" s="240"/>
+      <c r="N278" s="240"/>
+      <c r="O278" s="240"/>
+      <c r="P278" s="240"/>
+      <c r="Q278" s="240"/>
+      <c r="R278" s="240"/>
+      <c r="S278" s="240"/>
+      <c r="T278" s="240"/>
+      <c r="U278" s="240"/>
+      <c r="V278" s="240"/>
+      <c r="W278" s="240"/>
+      <c r="X278" s="240"/>
+      <c r="Y278" s="240"/>
+      <c r="Z278" s="240"/>
+      <c r="AA278" s="240"/>
+      <c r="AB278" s="240"/>
+      <c r="AC278" s="240"/>
+      <c r="AD278" s="240"/>
+      <c r="AE278" s="240"/>
+      <c r="AF278" s="240"/>
+      <c r="AG278" s="240"/>
+      <c r="AH278" s="240"/>
+      <c r="AI278" s="240"/>
+      <c r="AJ278" s="240"/>
+      <c r="AK278" s="240"/>
+      <c r="AL278" s="240"/>
+      <c r="AM278" s="240"/>
+      <c r="AN278" s="240"/>
+      <c r="AO278" s="240"/>
+      <c r="AP278" s="240"/>
+      <c r="AQ278" s="240"/>
+      <c r="AR278" s="241"/>
       <c r="AS278" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B32:AS32"/>
+    <mergeCell ref="C21:AR21"/>
+    <mergeCell ref="C13:AR13"/>
+    <mergeCell ref="C15:AR15"/>
+    <mergeCell ref="C19:AR19"/>
+    <mergeCell ref="C17:AR17"/>
     <mergeCell ref="C277:AR277"/>
     <mergeCell ref="C278:AR278"/>
     <mergeCell ref="B68:C68"/>
@@ -40682,12 +40682,6 @@
     <mergeCell ref="C270:AR270"/>
     <mergeCell ref="C272:AR272"/>
     <mergeCell ref="C274:AR274"/>
-    <mergeCell ref="C21:AR21"/>
-    <mergeCell ref="C13:AR13"/>
-    <mergeCell ref="C15:AR15"/>
-    <mergeCell ref="C19:AR19"/>
-    <mergeCell ref="C17:AR17"/>
-    <mergeCell ref="B32:AS32"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.35433070866141736" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -40698,7 +40692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -41288,50 +41282,50 @@
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B11" s="19"/>
-      <c r="C11" s="249" t="s">
+      <c r="C11" s="248" t="s">
         <v>530</v>
       </c>
-      <c r="D11" s="250"/>
-      <c r="E11" s="250"/>
-      <c r="F11" s="250"/>
-      <c r="G11" s="250"/>
-      <c r="H11" s="250"/>
-      <c r="I11" s="250"/>
-      <c r="J11" s="250"/>
-      <c r="K11" s="250"/>
-      <c r="L11" s="250"/>
-      <c r="M11" s="250"/>
-      <c r="N11" s="250"/>
-      <c r="O11" s="250"/>
-      <c r="P11" s="250"/>
-      <c r="Q11" s="250"/>
-      <c r="R11" s="250"/>
-      <c r="S11" s="250"/>
-      <c r="T11" s="250"/>
-      <c r="U11" s="250"/>
-      <c r="V11" s="250"/>
-      <c r="W11" s="250"/>
-      <c r="X11" s="250"/>
-      <c r="Y11" s="250"/>
-      <c r="Z11" s="250"/>
-      <c r="AA11" s="250"/>
-      <c r="AB11" s="250"/>
-      <c r="AC11" s="250"/>
-      <c r="AD11" s="250"/>
-      <c r="AE11" s="250"/>
-      <c r="AF11" s="250"/>
-      <c r="AG11" s="250"/>
-      <c r="AH11" s="250"/>
-      <c r="AI11" s="250"/>
-      <c r="AJ11" s="250"/>
-      <c r="AK11" s="250"/>
-      <c r="AL11" s="250"/>
-      <c r="AM11" s="250"/>
-      <c r="AN11" s="250"/>
-      <c r="AO11" s="250"/>
-      <c r="AP11" s="250"/>
-      <c r="AQ11" s="250"/>
-      <c r="AR11" s="251"/>
+      <c r="D11" s="249"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="249"/>
+      <c r="J11" s="249"/>
+      <c r="K11" s="249"/>
+      <c r="L11" s="249"/>
+      <c r="M11" s="249"/>
+      <c r="N11" s="249"/>
+      <c r="O11" s="249"/>
+      <c r="P11" s="249"/>
+      <c r="Q11" s="249"/>
+      <c r="R11" s="249"/>
+      <c r="S11" s="249"/>
+      <c r="T11" s="249"/>
+      <c r="U11" s="249"/>
+      <c r="V11" s="249"/>
+      <c r="W11" s="249"/>
+      <c r="X11" s="249"/>
+      <c r="Y11" s="249"/>
+      <c r="Z11" s="249"/>
+      <c r="AA11" s="249"/>
+      <c r="AB11" s="249"/>
+      <c r="AC11" s="249"/>
+      <c r="AD11" s="249"/>
+      <c r="AE11" s="249"/>
+      <c r="AF11" s="249"/>
+      <c r="AG11" s="249"/>
+      <c r="AH11" s="249"/>
+      <c r="AI11" s="249"/>
+      <c r="AJ11" s="249"/>
+      <c r="AK11" s="249"/>
+      <c r="AL11" s="249"/>
+      <c r="AM11" s="249"/>
+      <c r="AN11" s="249"/>
+      <c r="AO11" s="249"/>
+      <c r="AP11" s="249"/>
+      <c r="AQ11" s="249"/>
+      <c r="AR11" s="250"/>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
@@ -41383,47 +41377,47 @@
       <c r="C13" s="238" t="s">
         <v>543</v>
       </c>
-      <c r="D13" s="239"/>
-      <c r="E13" s="239"/>
-      <c r="F13" s="239"/>
-      <c r="G13" s="239"/>
-      <c r="H13" s="239"/>
-      <c r="I13" s="239"/>
-      <c r="J13" s="239"/>
-      <c r="K13" s="239"/>
-      <c r="L13" s="239"/>
-      <c r="M13" s="239"/>
-      <c r="N13" s="239"/>
-      <c r="O13" s="239"/>
-      <c r="P13" s="239"/>
-      <c r="Q13" s="239"/>
-      <c r="R13" s="239"/>
-      <c r="S13" s="239"/>
-      <c r="T13" s="239"/>
-      <c r="U13" s="239"/>
-      <c r="V13" s="239"/>
-      <c r="W13" s="239"/>
-      <c r="X13" s="239"/>
-      <c r="Y13" s="239"/>
-      <c r="Z13" s="239"/>
-      <c r="AA13" s="239"/>
-      <c r="AB13" s="239"/>
-      <c r="AC13" s="239"/>
-      <c r="AD13" s="239"/>
-      <c r="AE13" s="239"/>
-      <c r="AF13" s="239"/>
-      <c r="AG13" s="239"/>
-      <c r="AH13" s="239"/>
-      <c r="AI13" s="239"/>
-      <c r="AJ13" s="239"/>
-      <c r="AK13" s="239"/>
-      <c r="AL13" s="239"/>
-      <c r="AM13" s="239"/>
-      <c r="AN13" s="239"/>
-      <c r="AO13" s="239"/>
-      <c r="AP13" s="239"/>
-      <c r="AQ13" s="239"/>
-      <c r="AR13" s="230"/>
+      <c r="D13" s="245"/>
+      <c r="E13" s="245"/>
+      <c r="F13" s="245"/>
+      <c r="G13" s="245"/>
+      <c r="H13" s="245"/>
+      <c r="I13" s="245"/>
+      <c r="J13" s="245"/>
+      <c r="K13" s="245"/>
+      <c r="L13" s="245"/>
+      <c r="M13" s="245"/>
+      <c r="N13" s="245"/>
+      <c r="O13" s="245"/>
+      <c r="P13" s="245"/>
+      <c r="Q13" s="245"/>
+      <c r="R13" s="245"/>
+      <c r="S13" s="245"/>
+      <c r="T13" s="245"/>
+      <c r="U13" s="245"/>
+      <c r="V13" s="245"/>
+      <c r="W13" s="245"/>
+      <c r="X13" s="245"/>
+      <c r="Y13" s="245"/>
+      <c r="Z13" s="245"/>
+      <c r="AA13" s="245"/>
+      <c r="AB13" s="245"/>
+      <c r="AC13" s="245"/>
+      <c r="AD13" s="245"/>
+      <c r="AE13" s="245"/>
+      <c r="AF13" s="245"/>
+      <c r="AG13" s="245"/>
+      <c r="AH13" s="245"/>
+      <c r="AI13" s="245"/>
+      <c r="AJ13" s="245"/>
+      <c r="AK13" s="245"/>
+      <c r="AL13" s="245"/>
+      <c r="AM13" s="245"/>
+      <c r="AN13" s="245"/>
+      <c r="AO13" s="245"/>
+      <c r="AP13" s="245"/>
+      <c r="AQ13" s="245"/>
+      <c r="AR13" s="231"/>
       <c r="AS13" s="90"/>
     </row>
     <row r="14" spans="2:51" x14ac:dyDescent="0.25">
@@ -41477,47 +41471,47 @@
       <c r="C15" s="238" t="s">
         <v>542</v>
       </c>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
-      <c r="F15" s="239"/>
-      <c r="G15" s="239"/>
-      <c r="H15" s="239"/>
-      <c r="I15" s="239"/>
-      <c r="J15" s="239"/>
-      <c r="K15" s="239"/>
-      <c r="L15" s="239"/>
-      <c r="M15" s="239"/>
-      <c r="N15" s="239"/>
-      <c r="O15" s="239"/>
-      <c r="P15" s="239"/>
-      <c r="Q15" s="239"/>
-      <c r="R15" s="239"/>
-      <c r="S15" s="239"/>
-      <c r="T15" s="239"/>
-      <c r="U15" s="239"/>
-      <c r="V15" s="239"/>
-      <c r="W15" s="239"/>
-      <c r="X15" s="239"/>
-      <c r="Y15" s="239"/>
-      <c r="Z15" s="239"/>
-      <c r="AA15" s="239"/>
-      <c r="AB15" s="239"/>
-      <c r="AC15" s="239"/>
-      <c r="AD15" s="239"/>
-      <c r="AE15" s="239"/>
-      <c r="AF15" s="239"/>
-      <c r="AG15" s="239"/>
-      <c r="AH15" s="239"/>
-      <c r="AI15" s="239"/>
-      <c r="AJ15" s="239"/>
-      <c r="AK15" s="239"/>
-      <c r="AL15" s="239"/>
-      <c r="AM15" s="239"/>
-      <c r="AN15" s="239"/>
-      <c r="AO15" s="239"/>
-      <c r="AP15" s="239"/>
-      <c r="AQ15" s="239"/>
-      <c r="AR15" s="230"/>
+      <c r="D15" s="245"/>
+      <c r="E15" s="245"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="245"/>
+      <c r="H15" s="245"/>
+      <c r="I15" s="245"/>
+      <c r="J15" s="245"/>
+      <c r="K15" s="245"/>
+      <c r="L15" s="245"/>
+      <c r="M15" s="245"/>
+      <c r="N15" s="245"/>
+      <c r="O15" s="245"/>
+      <c r="P15" s="245"/>
+      <c r="Q15" s="245"/>
+      <c r="R15" s="245"/>
+      <c r="S15" s="245"/>
+      <c r="T15" s="245"/>
+      <c r="U15" s="245"/>
+      <c r="V15" s="245"/>
+      <c r="W15" s="245"/>
+      <c r="X15" s="245"/>
+      <c r="Y15" s="245"/>
+      <c r="Z15" s="245"/>
+      <c r="AA15" s="245"/>
+      <c r="AB15" s="245"/>
+      <c r="AC15" s="245"/>
+      <c r="AD15" s="245"/>
+      <c r="AE15" s="245"/>
+      <c r="AF15" s="245"/>
+      <c r="AG15" s="245"/>
+      <c r="AH15" s="245"/>
+      <c r="AI15" s="245"/>
+      <c r="AJ15" s="245"/>
+      <c r="AK15" s="245"/>
+      <c r="AL15" s="245"/>
+      <c r="AM15" s="245"/>
+      <c r="AN15" s="245"/>
+      <c r="AO15" s="245"/>
+      <c r="AP15" s="245"/>
+      <c r="AQ15" s="245"/>
+      <c r="AR15" s="231"/>
       <c r="AS15" s="90"/>
     </row>
     <row r="16" spans="2:51" x14ac:dyDescent="0.25">
@@ -41571,47 +41565,47 @@
       <c r="C17" s="238" t="s">
         <v>531</v>
       </c>
-      <c r="D17" s="239"/>
-      <c r="E17" s="239"/>
-      <c r="F17" s="239"/>
-      <c r="G17" s="239"/>
-      <c r="H17" s="239"/>
-      <c r="I17" s="239"/>
-      <c r="J17" s="239"/>
-      <c r="K17" s="239"/>
-      <c r="L17" s="239"/>
-      <c r="M17" s="239"/>
-      <c r="N17" s="239"/>
-      <c r="O17" s="239"/>
-      <c r="P17" s="239"/>
-      <c r="Q17" s="239"/>
-      <c r="R17" s="239"/>
-      <c r="S17" s="239"/>
-      <c r="T17" s="239"/>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="239"/>
-      <c r="Y17" s="239"/>
-      <c r="Z17" s="239"/>
-      <c r="AA17" s="239"/>
-      <c r="AB17" s="239"/>
-      <c r="AC17" s="239"/>
-      <c r="AD17" s="239"/>
-      <c r="AE17" s="239"/>
-      <c r="AF17" s="239"/>
-      <c r="AG17" s="239"/>
-      <c r="AH17" s="239"/>
-      <c r="AI17" s="239"/>
-      <c r="AJ17" s="239"/>
-      <c r="AK17" s="239"/>
-      <c r="AL17" s="239"/>
-      <c r="AM17" s="239"/>
-      <c r="AN17" s="239"/>
-      <c r="AO17" s="239"/>
-      <c r="AP17" s="239"/>
-      <c r="AQ17" s="239"/>
-      <c r="AR17" s="230"/>
+      <c r="D17" s="245"/>
+      <c r="E17" s="245"/>
+      <c r="F17" s="245"/>
+      <c r="G17" s="245"/>
+      <c r="H17" s="245"/>
+      <c r="I17" s="245"/>
+      <c r="J17" s="245"/>
+      <c r="K17" s="245"/>
+      <c r="L17" s="245"/>
+      <c r="M17" s="245"/>
+      <c r="N17" s="245"/>
+      <c r="O17" s="245"/>
+      <c r="P17" s="245"/>
+      <c r="Q17" s="245"/>
+      <c r="R17" s="245"/>
+      <c r="S17" s="245"/>
+      <c r="T17" s="245"/>
+      <c r="U17" s="245"/>
+      <c r="V17" s="245"/>
+      <c r="W17" s="245"/>
+      <c r="X17" s="245"/>
+      <c r="Y17" s="245"/>
+      <c r="Z17" s="245"/>
+      <c r="AA17" s="245"/>
+      <c r="AB17" s="245"/>
+      <c r="AC17" s="245"/>
+      <c r="AD17" s="245"/>
+      <c r="AE17" s="245"/>
+      <c r="AF17" s="245"/>
+      <c r="AG17" s="245"/>
+      <c r="AH17" s="245"/>
+      <c r="AI17" s="245"/>
+      <c r="AJ17" s="245"/>
+      <c r="AK17" s="245"/>
+      <c r="AL17" s="245"/>
+      <c r="AM17" s="245"/>
+      <c r="AN17" s="245"/>
+      <c r="AO17" s="245"/>
+      <c r="AP17" s="245"/>
+      <c r="AQ17" s="245"/>
+      <c r="AR17" s="231"/>
       <c r="AS17" s="90"/>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
@@ -41662,49 +41656,49 @@
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B19" s="31"/>
-      <c r="C19" s="241" t="s">
+      <c r="C19" s="239" t="s">
         <v>544</v>
       </c>
-      <c r="D19" s="242"/>
-      <c r="E19" s="242"/>
-      <c r="F19" s="242"/>
-      <c r="G19" s="242"/>
-      <c r="H19" s="242"/>
-      <c r="I19" s="242"/>
-      <c r="J19" s="242"/>
-      <c r="K19" s="242"/>
-      <c r="L19" s="242"/>
-      <c r="M19" s="242"/>
-      <c r="N19" s="242"/>
-      <c r="O19" s="242"/>
-      <c r="P19" s="242"/>
-      <c r="Q19" s="242"/>
-      <c r="R19" s="242"/>
-      <c r="S19" s="242"/>
-      <c r="T19" s="242"/>
-      <c r="U19" s="242"/>
-      <c r="V19" s="242"/>
-      <c r="W19" s="242"/>
-      <c r="X19" s="242"/>
-      <c r="Y19" s="242"/>
-      <c r="Z19" s="242"/>
-      <c r="AA19" s="242"/>
-      <c r="AB19" s="242"/>
-      <c r="AC19" s="242"/>
-      <c r="AD19" s="242"/>
-      <c r="AE19" s="242"/>
-      <c r="AF19" s="242"/>
-      <c r="AG19" s="242"/>
-      <c r="AH19" s="242"/>
-      <c r="AI19" s="242"/>
-      <c r="AJ19" s="242"/>
-      <c r="AK19" s="242"/>
-      <c r="AL19" s="242"/>
-      <c r="AM19" s="242"/>
-      <c r="AN19" s="242"/>
-      <c r="AO19" s="242"/>
-      <c r="AP19" s="242"/>
-      <c r="AQ19" s="242"/>
+      <c r="D19" s="240"/>
+      <c r="E19" s="240"/>
+      <c r="F19" s="240"/>
+      <c r="G19" s="240"/>
+      <c r="H19" s="240"/>
+      <c r="I19" s="240"/>
+      <c r="J19" s="240"/>
+      <c r="K19" s="240"/>
+      <c r="L19" s="240"/>
+      <c r="M19" s="240"/>
+      <c r="N19" s="240"/>
+      <c r="O19" s="240"/>
+      <c r="P19" s="240"/>
+      <c r="Q19" s="240"/>
+      <c r="R19" s="240"/>
+      <c r="S19" s="240"/>
+      <c r="T19" s="240"/>
+      <c r="U19" s="240"/>
+      <c r="V19" s="240"/>
+      <c r="W19" s="240"/>
+      <c r="X19" s="240"/>
+      <c r="Y19" s="240"/>
+      <c r="Z19" s="240"/>
+      <c r="AA19" s="240"/>
+      <c r="AB19" s="240"/>
+      <c r="AC19" s="240"/>
+      <c r="AD19" s="240"/>
+      <c r="AE19" s="240"/>
+      <c r="AF19" s="240"/>
+      <c r="AG19" s="240"/>
+      <c r="AH19" s="240"/>
+      <c r="AI19" s="240"/>
+      <c r="AJ19" s="240"/>
+      <c r="AK19" s="240"/>
+      <c r="AL19" s="240"/>
+      <c r="AM19" s="240"/>
+      <c r="AN19" s="240"/>
+      <c r="AO19" s="240"/>
+      <c r="AP19" s="240"/>
+      <c r="AQ19" s="240"/>
       <c r="AR19" s="108"/>
       <c r="AS19" s="90"/>
     </row>
@@ -43569,10 +43563,10 @@
       <c r="AU48" s="12"/>
     </row>
     <row r="49" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="244" t="s">
+      <c r="B49" s="242" t="s">
         <v>540</v>
       </c>
-      <c r="C49" s="245"/>
+      <c r="C49" s="243"/>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
       <c r="F49" s="31"/>
@@ -52423,36 +52417,36 @@
       <c r="A193" t="s">
         <v>334</v>
       </c>
-      <c r="B193" s="246" t="s">
+      <c r="B193" s="244" t="s">
         <v>421</v>
       </c>
-      <c r="C193" s="246"/>
-      <c r="D193" s="246"/>
-      <c r="E193" s="246"/>
-      <c r="F193" s="246"/>
-      <c r="G193" s="246"/>
-      <c r="H193" s="246"/>
-      <c r="I193" s="246"/>
-      <c r="J193" s="246"/>
-      <c r="K193" s="246"/>
-      <c r="L193" s="246"/>
-      <c r="M193" s="246"/>
-      <c r="N193" s="246"/>
-      <c r="O193" s="246"/>
-      <c r="P193" s="246"/>
-      <c r="Q193" s="246"/>
-      <c r="R193" s="246"/>
-      <c r="S193" s="246"/>
-      <c r="T193" s="246"/>
-      <c r="U193" s="246"/>
-      <c r="V193" s="246"/>
-      <c r="W193" s="246"/>
-      <c r="X193" s="246"/>
-      <c r="Y193" s="246"/>
-      <c r="Z193" s="246"/>
-      <c r="AA193" s="246"/>
-      <c r="AB193" s="246"/>
-      <c r="AC193" s="246"/>
+      <c r="C193" s="244"/>
+      <c r="D193" s="244"/>
+      <c r="E193" s="244"/>
+      <c r="F193" s="244"/>
+      <c r="G193" s="244"/>
+      <c r="H193" s="244"/>
+      <c r="I193" s="244"/>
+      <c r="J193" s="244"/>
+      <c r="K193" s="244"/>
+      <c r="L193" s="244"/>
+      <c r="M193" s="244"/>
+      <c r="N193" s="244"/>
+      <c r="O193" s="244"/>
+      <c r="P193" s="244"/>
+      <c r="Q193" s="244"/>
+      <c r="R193" s="244"/>
+      <c r="S193" s="244"/>
+      <c r="T193" s="244"/>
+      <c r="U193" s="244"/>
+      <c r="V193" s="244"/>
+      <c r="W193" s="244"/>
+      <c r="X193" s="244"/>
+      <c r="Y193" s="244"/>
+      <c r="Z193" s="244"/>
+      <c r="AA193" s="244"/>
+      <c r="AB193" s="244"/>
+      <c r="AC193" s="244"/>
       <c r="AD193" s="19"/>
       <c r="AE193" s="19"/>
       <c r="AF193" s="19"/>
@@ -52516,36 +52510,36 @@
       <c r="AT194" s="20"/>
     </row>
     <row r="195" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="246" t="s">
+      <c r="B195" s="244" t="s">
         <v>420</v>
       </c>
-      <c r="C195" s="246"/>
-      <c r="D195" s="246"/>
-      <c r="E195" s="246"/>
-      <c r="F195" s="246"/>
-      <c r="G195" s="246"/>
-      <c r="H195" s="246"/>
-      <c r="I195" s="246"/>
-      <c r="J195" s="246"/>
-      <c r="K195" s="246"/>
-      <c r="L195" s="246"/>
-      <c r="M195" s="246"/>
-      <c r="N195" s="246"/>
-      <c r="O195" s="246"/>
-      <c r="P195" s="246"/>
-      <c r="Q195" s="246"/>
-      <c r="R195" s="246"/>
-      <c r="S195" s="246"/>
-      <c r="T195" s="246"/>
-      <c r="U195" s="246"/>
-      <c r="V195" s="246"/>
-      <c r="W195" s="246"/>
-      <c r="X195" s="246"/>
-      <c r="Y195" s="246"/>
-      <c r="Z195" s="246"/>
-      <c r="AA195" s="246"/>
-      <c r="AB195" s="246"/>
-      <c r="AC195" s="246"/>
+      <c r="C195" s="244"/>
+      <c r="D195" s="244"/>
+      <c r="E195" s="244"/>
+      <c r="F195" s="244"/>
+      <c r="G195" s="244"/>
+      <c r="H195" s="244"/>
+      <c r="I195" s="244"/>
+      <c r="J195" s="244"/>
+      <c r="K195" s="244"/>
+      <c r="L195" s="244"/>
+      <c r="M195" s="244"/>
+      <c r="N195" s="244"/>
+      <c r="O195" s="244"/>
+      <c r="P195" s="244"/>
+      <c r="Q195" s="244"/>
+      <c r="R195" s="244"/>
+      <c r="S195" s="244"/>
+      <c r="T195" s="244"/>
+      <c r="U195" s="244"/>
+      <c r="V195" s="244"/>
+      <c r="W195" s="244"/>
+      <c r="X195" s="244"/>
+      <c r="Y195" s="244"/>
+      <c r="Z195" s="244"/>
+      <c r="AA195" s="244"/>
+      <c r="AB195" s="244"/>
+      <c r="AC195" s="244"/>
       <c r="AD195" s="19"/>
       <c r="AE195" s="19"/>
       <c r="AF195" s="19"/>
@@ -52608,36 +52602,36 @@
       <c r="AT196" s="20"/>
     </row>
     <row r="197" spans="1:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="246" t="s">
+      <c r="B197" s="244" t="s">
         <v>421</v>
       </c>
-      <c r="C197" s="246"/>
-      <c r="D197" s="246"/>
-      <c r="E197" s="246"/>
-      <c r="F197" s="246"/>
-      <c r="G197" s="246"/>
-      <c r="H197" s="246"/>
-      <c r="I197" s="246"/>
-      <c r="J197" s="246"/>
-      <c r="K197" s="246"/>
-      <c r="L197" s="246"/>
-      <c r="M197" s="246"/>
-      <c r="N197" s="246"/>
-      <c r="O197" s="246"/>
-      <c r="P197" s="246"/>
-      <c r="Q197" s="246"/>
-      <c r="R197" s="246"/>
-      <c r="S197" s="246"/>
-      <c r="T197" s="246"/>
-      <c r="U197" s="246"/>
-      <c r="V197" s="246"/>
-      <c r="W197" s="246"/>
-      <c r="X197" s="246"/>
-      <c r="Y197" s="246"/>
-      <c r="Z197" s="246"/>
-      <c r="AA197" s="246"/>
-      <c r="AB197" s="246"/>
-      <c r="AC197" s="246"/>
+      <c r="C197" s="244"/>
+      <c r="D197" s="244"/>
+      <c r="E197" s="244"/>
+      <c r="F197" s="244"/>
+      <c r="G197" s="244"/>
+      <c r="H197" s="244"/>
+      <c r="I197" s="244"/>
+      <c r="J197" s="244"/>
+      <c r="K197" s="244"/>
+      <c r="L197" s="244"/>
+      <c r="M197" s="244"/>
+      <c r="N197" s="244"/>
+      <c r="O197" s="244"/>
+      <c r="P197" s="244"/>
+      <c r="Q197" s="244"/>
+      <c r="R197" s="244"/>
+      <c r="S197" s="244"/>
+      <c r="T197" s="244"/>
+      <c r="U197" s="244"/>
+      <c r="V197" s="244"/>
+      <c r="W197" s="244"/>
+      <c r="X197" s="244"/>
+      <c r="Y197" s="244"/>
+      <c r="Z197" s="244"/>
+      <c r="AA197" s="244"/>
+      <c r="AB197" s="244"/>
+      <c r="AC197" s="244"/>
       <c r="AD197" s="19"/>
       <c r="AE197" s="19"/>
       <c r="AF197" s="19"/>
@@ -52702,47 +52696,47 @@
       <c r="AT198" s="20"/>
     </row>
     <row r="199" spans="1:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="246" t="s">
+      <c r="B199" s="244" t="s">
         <v>503</v>
       </c>
-      <c r="C199" s="246"/>
-      <c r="D199" s="246"/>
-      <c r="E199" s="247"/>
-      <c r="F199" s="247"/>
-      <c r="G199" s="247"/>
-      <c r="H199" s="247"/>
-      <c r="I199" s="247"/>
-      <c r="J199" s="247"/>
-      <c r="K199" s="247"/>
-      <c r="L199" s="247"/>
-      <c r="M199" s="247"/>
-      <c r="N199" s="247"/>
-      <c r="O199" s="247"/>
-      <c r="P199" s="247"/>
-      <c r="Q199" s="247"/>
-      <c r="R199" s="247"/>
-      <c r="S199" s="247"/>
-      <c r="T199" s="247"/>
-      <c r="U199" s="247"/>
-      <c r="V199" s="247"/>
-      <c r="W199" s="247"/>
-      <c r="X199" s="247"/>
-      <c r="Y199" s="247"/>
-      <c r="Z199" s="247"/>
-      <c r="AA199" s="247"/>
-      <c r="AB199" s="247"/>
-      <c r="AC199" s="247"/>
-      <c r="AD199" s="247"/>
-      <c r="AE199" s="247"/>
-      <c r="AF199" s="247"/>
-      <c r="AG199" s="247"/>
-      <c r="AH199" s="247"/>
-      <c r="AI199" s="247"/>
-      <c r="AJ199" s="247"/>
-      <c r="AK199" s="247"/>
-      <c r="AL199" s="247"/>
-      <c r="AM199" s="247"/>
-      <c r="AN199" s="247"/>
+      <c r="C199" s="244"/>
+      <c r="D199" s="244"/>
+      <c r="E199" s="246"/>
+      <c r="F199" s="246"/>
+      <c r="G199" s="246"/>
+      <c r="H199" s="246"/>
+      <c r="I199" s="246"/>
+      <c r="J199" s="246"/>
+      <c r="K199" s="246"/>
+      <c r="L199" s="246"/>
+      <c r="M199" s="246"/>
+      <c r="N199" s="246"/>
+      <c r="O199" s="246"/>
+      <c r="P199" s="246"/>
+      <c r="Q199" s="246"/>
+      <c r="R199" s="246"/>
+      <c r="S199" s="246"/>
+      <c r="T199" s="246"/>
+      <c r="U199" s="246"/>
+      <c r="V199" s="246"/>
+      <c r="W199" s="246"/>
+      <c r="X199" s="246"/>
+      <c r="Y199" s="246"/>
+      <c r="Z199" s="246"/>
+      <c r="AA199" s="246"/>
+      <c r="AB199" s="246"/>
+      <c r="AC199" s="246"/>
+      <c r="AD199" s="246"/>
+      <c r="AE199" s="246"/>
+      <c r="AF199" s="246"/>
+      <c r="AG199" s="246"/>
+      <c r="AH199" s="246"/>
+      <c r="AI199" s="246"/>
+      <c r="AJ199" s="246"/>
+      <c r="AK199" s="246"/>
+      <c r="AL199" s="246"/>
+      <c r="AM199" s="246"/>
+      <c r="AN199" s="246"/>
       <c r="AQ199" s="80" t="s">
         <v>426</v>
       </c>
@@ -52878,50 +52872,50 @@
     </row>
     <row r="203" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B203" s="19"/>
-      <c r="C203" s="249" t="s">
+      <c r="C203" s="248" t="s">
         <v>530</v>
       </c>
-      <c r="D203" s="250"/>
-      <c r="E203" s="250"/>
-      <c r="F203" s="250"/>
-      <c r="G203" s="250"/>
-      <c r="H203" s="250"/>
-      <c r="I203" s="250"/>
-      <c r="J203" s="250"/>
-      <c r="K203" s="250"/>
-      <c r="L203" s="250"/>
-      <c r="M203" s="250"/>
-      <c r="N203" s="250"/>
-      <c r="O203" s="250"/>
-      <c r="P203" s="250"/>
-      <c r="Q203" s="250"/>
-      <c r="R203" s="250"/>
-      <c r="S203" s="250"/>
-      <c r="T203" s="250"/>
-      <c r="U203" s="250"/>
-      <c r="V203" s="250"/>
-      <c r="W203" s="250"/>
-      <c r="X203" s="250"/>
-      <c r="Y203" s="250"/>
-      <c r="Z203" s="250"/>
-      <c r="AA203" s="250"/>
-      <c r="AB203" s="250"/>
-      <c r="AC203" s="250"/>
-      <c r="AD203" s="250"/>
-      <c r="AE203" s="250"/>
-      <c r="AF203" s="250"/>
-      <c r="AG203" s="250"/>
-      <c r="AH203" s="250"/>
-      <c r="AI203" s="250"/>
-      <c r="AJ203" s="250"/>
-      <c r="AK203" s="250"/>
-      <c r="AL203" s="250"/>
-      <c r="AM203" s="250"/>
-      <c r="AN203" s="250"/>
-      <c r="AO203" s="250"/>
-      <c r="AP203" s="250"/>
-      <c r="AQ203" s="250"/>
-      <c r="AR203" s="251"/>
+      <c r="D203" s="249"/>
+      <c r="E203" s="249"/>
+      <c r="F203" s="249"/>
+      <c r="G203" s="249"/>
+      <c r="H203" s="249"/>
+      <c r="I203" s="249"/>
+      <c r="J203" s="249"/>
+      <c r="K203" s="249"/>
+      <c r="L203" s="249"/>
+      <c r="M203" s="249"/>
+      <c r="N203" s="249"/>
+      <c r="O203" s="249"/>
+      <c r="P203" s="249"/>
+      <c r="Q203" s="249"/>
+      <c r="R203" s="249"/>
+      <c r="S203" s="249"/>
+      <c r="T203" s="249"/>
+      <c r="U203" s="249"/>
+      <c r="V203" s="249"/>
+      <c r="W203" s="249"/>
+      <c r="X203" s="249"/>
+      <c r="Y203" s="249"/>
+      <c r="Z203" s="249"/>
+      <c r="AA203" s="249"/>
+      <c r="AB203" s="249"/>
+      <c r="AC203" s="249"/>
+      <c r="AD203" s="249"/>
+      <c r="AE203" s="249"/>
+      <c r="AF203" s="249"/>
+      <c r="AG203" s="249"/>
+      <c r="AH203" s="249"/>
+      <c r="AI203" s="249"/>
+      <c r="AJ203" s="249"/>
+      <c r="AK203" s="249"/>
+      <c r="AL203" s="249"/>
+      <c r="AM203" s="249"/>
+      <c r="AN203" s="249"/>
+      <c r="AO203" s="249"/>
+      <c r="AP203" s="249"/>
+      <c r="AQ203" s="249"/>
+      <c r="AR203" s="250"/>
     </row>
     <row r="204" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B204" s="19"/>
@@ -52973,47 +52967,47 @@
       <c r="C205" s="238" t="s">
         <v>543</v>
       </c>
-      <c r="D205" s="239"/>
-      <c r="E205" s="239"/>
-      <c r="F205" s="239"/>
-      <c r="G205" s="239"/>
-      <c r="H205" s="239"/>
-      <c r="I205" s="239"/>
-      <c r="J205" s="239"/>
-      <c r="K205" s="239"/>
-      <c r="L205" s="239"/>
-      <c r="M205" s="239"/>
-      <c r="N205" s="239"/>
-      <c r="O205" s="239"/>
-      <c r="P205" s="239"/>
-      <c r="Q205" s="239"/>
-      <c r="R205" s="239"/>
-      <c r="S205" s="239"/>
-      <c r="T205" s="239"/>
-      <c r="U205" s="239"/>
-      <c r="V205" s="239"/>
-      <c r="W205" s="239"/>
-      <c r="X205" s="239"/>
-      <c r="Y205" s="239"/>
-      <c r="Z205" s="239"/>
-      <c r="AA205" s="239"/>
-      <c r="AB205" s="239"/>
-      <c r="AC205" s="239"/>
-      <c r="AD205" s="239"/>
-      <c r="AE205" s="239"/>
-      <c r="AF205" s="239"/>
-      <c r="AG205" s="239"/>
-      <c r="AH205" s="239"/>
-      <c r="AI205" s="239"/>
-      <c r="AJ205" s="239"/>
-      <c r="AK205" s="239"/>
-      <c r="AL205" s="239"/>
-      <c r="AM205" s="239"/>
-      <c r="AN205" s="239"/>
-      <c r="AO205" s="239"/>
-      <c r="AP205" s="239"/>
-      <c r="AQ205" s="239"/>
-      <c r="AR205" s="230"/>
+      <c r="D205" s="245"/>
+      <c r="E205" s="245"/>
+      <c r="F205" s="245"/>
+      <c r="G205" s="245"/>
+      <c r="H205" s="245"/>
+      <c r="I205" s="245"/>
+      <c r="J205" s="245"/>
+      <c r="K205" s="245"/>
+      <c r="L205" s="245"/>
+      <c r="M205" s="245"/>
+      <c r="N205" s="245"/>
+      <c r="O205" s="245"/>
+      <c r="P205" s="245"/>
+      <c r="Q205" s="245"/>
+      <c r="R205" s="245"/>
+      <c r="S205" s="245"/>
+      <c r="T205" s="245"/>
+      <c r="U205" s="245"/>
+      <c r="V205" s="245"/>
+      <c r="W205" s="245"/>
+      <c r="X205" s="245"/>
+      <c r="Y205" s="245"/>
+      <c r="Z205" s="245"/>
+      <c r="AA205" s="245"/>
+      <c r="AB205" s="245"/>
+      <c r="AC205" s="245"/>
+      <c r="AD205" s="245"/>
+      <c r="AE205" s="245"/>
+      <c r="AF205" s="245"/>
+      <c r="AG205" s="245"/>
+      <c r="AH205" s="245"/>
+      <c r="AI205" s="245"/>
+      <c r="AJ205" s="245"/>
+      <c r="AK205" s="245"/>
+      <c r="AL205" s="245"/>
+      <c r="AM205" s="245"/>
+      <c r="AN205" s="245"/>
+      <c r="AO205" s="245"/>
+      <c r="AP205" s="245"/>
+      <c r="AQ205" s="245"/>
+      <c r="AR205" s="231"/>
       <c r="AS205" s="90"/>
     </row>
     <row r="206" spans="1:46" x14ac:dyDescent="0.25">
@@ -53067,47 +53061,47 @@
       <c r="C207" s="238" t="s">
         <v>542</v>
       </c>
-      <c r="D207" s="239"/>
-      <c r="E207" s="239"/>
-      <c r="F207" s="239"/>
-      <c r="G207" s="239"/>
-      <c r="H207" s="239"/>
-      <c r="I207" s="239"/>
-      <c r="J207" s="239"/>
-      <c r="K207" s="239"/>
-      <c r="L207" s="239"/>
-      <c r="M207" s="239"/>
-      <c r="N207" s="239"/>
-      <c r="O207" s="239"/>
-      <c r="P207" s="239"/>
-      <c r="Q207" s="239"/>
-      <c r="R207" s="239"/>
-      <c r="S207" s="239"/>
-      <c r="T207" s="239"/>
-      <c r="U207" s="239"/>
-      <c r="V207" s="239"/>
-      <c r="W207" s="239"/>
-      <c r="X207" s="239"/>
-      <c r="Y207" s="239"/>
-      <c r="Z207" s="239"/>
-      <c r="AA207" s="239"/>
-      <c r="AB207" s="239"/>
-      <c r="AC207" s="239"/>
-      <c r="AD207" s="239"/>
-      <c r="AE207" s="239"/>
-      <c r="AF207" s="239"/>
-      <c r="AG207" s="239"/>
-      <c r="AH207" s="239"/>
-      <c r="AI207" s="239"/>
-      <c r="AJ207" s="239"/>
-      <c r="AK207" s="239"/>
-      <c r="AL207" s="239"/>
-      <c r="AM207" s="239"/>
-      <c r="AN207" s="239"/>
-      <c r="AO207" s="239"/>
-      <c r="AP207" s="239"/>
-      <c r="AQ207" s="239"/>
-      <c r="AR207" s="230"/>
+      <c r="D207" s="245"/>
+      <c r="E207" s="245"/>
+      <c r="F207" s="245"/>
+      <c r="G207" s="245"/>
+      <c r="H207" s="245"/>
+      <c r="I207" s="245"/>
+      <c r="J207" s="245"/>
+      <c r="K207" s="245"/>
+      <c r="L207" s="245"/>
+      <c r="M207" s="245"/>
+      <c r="N207" s="245"/>
+      <c r="O207" s="245"/>
+      <c r="P207" s="245"/>
+      <c r="Q207" s="245"/>
+      <c r="R207" s="245"/>
+      <c r="S207" s="245"/>
+      <c r="T207" s="245"/>
+      <c r="U207" s="245"/>
+      <c r="V207" s="245"/>
+      <c r="W207" s="245"/>
+      <c r="X207" s="245"/>
+      <c r="Y207" s="245"/>
+      <c r="Z207" s="245"/>
+      <c r="AA207" s="245"/>
+      <c r="AB207" s="245"/>
+      <c r="AC207" s="245"/>
+      <c r="AD207" s="245"/>
+      <c r="AE207" s="245"/>
+      <c r="AF207" s="245"/>
+      <c r="AG207" s="245"/>
+      <c r="AH207" s="245"/>
+      <c r="AI207" s="245"/>
+      <c r="AJ207" s="245"/>
+      <c r="AK207" s="245"/>
+      <c r="AL207" s="245"/>
+      <c r="AM207" s="245"/>
+      <c r="AN207" s="245"/>
+      <c r="AO207" s="245"/>
+      <c r="AP207" s="245"/>
+      <c r="AQ207" s="245"/>
+      <c r="AR207" s="231"/>
       <c r="AS207" s="90"/>
     </row>
     <row r="208" spans="1:46" x14ac:dyDescent="0.25">
@@ -53161,47 +53155,47 @@
       <c r="C209" s="238" t="s">
         <v>531</v>
       </c>
-      <c r="D209" s="239"/>
-      <c r="E209" s="239"/>
-      <c r="F209" s="239"/>
-      <c r="G209" s="239"/>
-      <c r="H209" s="239"/>
-      <c r="I209" s="239"/>
-      <c r="J209" s="239"/>
-      <c r="K209" s="239"/>
-      <c r="L209" s="239"/>
-      <c r="M209" s="239"/>
-      <c r="N209" s="239"/>
-      <c r="O209" s="239"/>
-      <c r="P209" s="239"/>
-      <c r="Q209" s="239"/>
-      <c r="R209" s="239"/>
-      <c r="S209" s="239"/>
-      <c r="T209" s="239"/>
-      <c r="U209" s="239"/>
-      <c r="V209" s="239"/>
-      <c r="W209" s="239"/>
-      <c r="X209" s="239"/>
-      <c r="Y209" s="239"/>
-      <c r="Z209" s="239"/>
-      <c r="AA209" s="239"/>
-      <c r="AB209" s="239"/>
-      <c r="AC209" s="239"/>
-      <c r="AD209" s="239"/>
-      <c r="AE209" s="239"/>
-      <c r="AF209" s="239"/>
-      <c r="AG209" s="239"/>
-      <c r="AH209" s="239"/>
-      <c r="AI209" s="239"/>
-      <c r="AJ209" s="239"/>
-      <c r="AK209" s="239"/>
-      <c r="AL209" s="239"/>
-      <c r="AM209" s="239"/>
-      <c r="AN209" s="239"/>
-      <c r="AO209" s="239"/>
-      <c r="AP209" s="239"/>
-      <c r="AQ209" s="239"/>
-      <c r="AR209" s="230"/>
+      <c r="D209" s="245"/>
+      <c r="E209" s="245"/>
+      <c r="F209" s="245"/>
+      <c r="G209" s="245"/>
+      <c r="H209" s="245"/>
+      <c r="I209" s="245"/>
+      <c r="J209" s="245"/>
+      <c r="K209" s="245"/>
+      <c r="L209" s="245"/>
+      <c r="M209" s="245"/>
+      <c r="N209" s="245"/>
+      <c r="O209" s="245"/>
+      <c r="P209" s="245"/>
+      <c r="Q209" s="245"/>
+      <c r="R209" s="245"/>
+      <c r="S209" s="245"/>
+      <c r="T209" s="245"/>
+      <c r="U209" s="245"/>
+      <c r="V209" s="245"/>
+      <c r="W209" s="245"/>
+      <c r="X209" s="245"/>
+      <c r="Y209" s="245"/>
+      <c r="Z209" s="245"/>
+      <c r="AA209" s="245"/>
+      <c r="AB209" s="245"/>
+      <c r="AC209" s="245"/>
+      <c r="AD209" s="245"/>
+      <c r="AE209" s="245"/>
+      <c r="AF209" s="245"/>
+      <c r="AG209" s="245"/>
+      <c r="AH209" s="245"/>
+      <c r="AI209" s="245"/>
+      <c r="AJ209" s="245"/>
+      <c r="AK209" s="245"/>
+      <c r="AL209" s="245"/>
+      <c r="AM209" s="245"/>
+      <c r="AN209" s="245"/>
+      <c r="AO209" s="245"/>
+      <c r="AP209" s="245"/>
+      <c r="AQ209" s="245"/>
+      <c r="AR209" s="231"/>
       <c r="AS209" s="90"/>
     </row>
     <row r="210" spans="2:45" x14ac:dyDescent="0.25">
@@ -53252,54 +53246,60 @@
     </row>
     <row r="211" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B211" s="31"/>
-      <c r="C211" s="241" t="s">
+      <c r="C211" s="239" t="s">
         <v>545</v>
       </c>
-      <c r="D211" s="242"/>
-      <c r="E211" s="242"/>
-      <c r="F211" s="242"/>
-      <c r="G211" s="242"/>
-      <c r="H211" s="242"/>
-      <c r="I211" s="242"/>
-      <c r="J211" s="242"/>
-      <c r="K211" s="242"/>
-      <c r="L211" s="242"/>
-      <c r="M211" s="242"/>
-      <c r="N211" s="242"/>
-      <c r="O211" s="242"/>
-      <c r="P211" s="242"/>
-      <c r="Q211" s="242"/>
-      <c r="R211" s="242"/>
-      <c r="S211" s="242"/>
-      <c r="T211" s="242"/>
-      <c r="U211" s="242"/>
-      <c r="V211" s="242"/>
-      <c r="W211" s="242"/>
-      <c r="X211" s="242"/>
-      <c r="Y211" s="242"/>
-      <c r="Z211" s="242"/>
-      <c r="AA211" s="242"/>
-      <c r="AB211" s="242"/>
-      <c r="AC211" s="242"/>
-      <c r="AD211" s="242"/>
-      <c r="AE211" s="242"/>
-      <c r="AF211" s="242"/>
-      <c r="AG211" s="242"/>
-      <c r="AH211" s="242"/>
-      <c r="AI211" s="242"/>
-      <c r="AJ211" s="242"/>
-      <c r="AK211" s="242"/>
-      <c r="AL211" s="242"/>
-      <c r="AM211" s="242"/>
-      <c r="AN211" s="242"/>
-      <c r="AO211" s="242"/>
-      <c r="AP211" s="242"/>
-      <c r="AQ211" s="242"/>
+      <c r="D211" s="240"/>
+      <c r="E211" s="240"/>
+      <c r="F211" s="240"/>
+      <c r="G211" s="240"/>
+      <c r="H211" s="240"/>
+      <c r="I211" s="240"/>
+      <c r="J211" s="240"/>
+      <c r="K211" s="240"/>
+      <c r="L211" s="240"/>
+      <c r="M211" s="240"/>
+      <c r="N211" s="240"/>
+      <c r="O211" s="240"/>
+      <c r="P211" s="240"/>
+      <c r="Q211" s="240"/>
+      <c r="R211" s="240"/>
+      <c r="S211" s="240"/>
+      <c r="T211" s="240"/>
+      <c r="U211" s="240"/>
+      <c r="V211" s="240"/>
+      <c r="W211" s="240"/>
+      <c r="X211" s="240"/>
+      <c r="Y211" s="240"/>
+      <c r="Z211" s="240"/>
+      <c r="AA211" s="240"/>
+      <c r="AB211" s="240"/>
+      <c r="AC211" s="240"/>
+      <c r="AD211" s="240"/>
+      <c r="AE211" s="240"/>
+      <c r="AF211" s="240"/>
+      <c r="AG211" s="240"/>
+      <c r="AH211" s="240"/>
+      <c r="AI211" s="240"/>
+      <c r="AJ211" s="240"/>
+      <c r="AK211" s="240"/>
+      <c r="AL211" s="240"/>
+      <c r="AM211" s="240"/>
+      <c r="AN211" s="240"/>
+      <c r="AO211" s="240"/>
+      <c r="AP211" s="240"/>
+      <c r="AQ211" s="240"/>
       <c r="AR211" s="108"/>
       <c r="AS211" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="C11:AR11"/>
+    <mergeCell ref="C13:AR13"/>
+    <mergeCell ref="C15:AR15"/>
+    <mergeCell ref="C17:AR17"/>
+    <mergeCell ref="C19:AQ19"/>
     <mergeCell ref="C207:AR207"/>
     <mergeCell ref="C209:AR209"/>
     <mergeCell ref="C211:AQ211"/>
@@ -53309,12 +53309,6 @@
     <mergeCell ref="B199:AN199"/>
     <mergeCell ref="C203:AR203"/>
     <mergeCell ref="C205:AR205"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="C11:AR11"/>
-    <mergeCell ref="C13:AR13"/>
-    <mergeCell ref="C15:AR15"/>
-    <mergeCell ref="C17:AR17"/>
-    <mergeCell ref="C19:AQ19"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -53325,7 +53319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -53334,7 +53328,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G239" sqref="G239"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:I269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -60954,7 +60948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -61116,13 +61110,13 @@
     </row>
     <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B11" s="19"/>
-      <c r="C11" s="265" t="s">
+      <c r="C11" s="259" t="s">
         <v>714</v>
       </c>
-      <c r="D11" s="266"/>
-      <c r="E11" s="266"/>
-      <c r="F11" s="266"/>
-      <c r="G11" s="267"/>
+      <c r="D11" s="260"/>
+      <c r="E11" s="260"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="261"/>
     </row>
     <row r="12" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="19"/>
@@ -61134,13 +61128,13 @@
     </row>
     <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B13" s="19"/>
-      <c r="C13" s="265" t="s">
+      <c r="C13" s="259" t="s">
         <v>530</v>
       </c>
-      <c r="D13" s="271"/>
-      <c r="E13" s="271"/>
-      <c r="F13" s="271"/>
-      <c r="G13" s="272"/>
+      <c r="D13" s="267"/>
+      <c r="E13" s="267"/>
+      <c r="F13" s="267"/>
+      <c r="G13" s="268"/>
     </row>
     <row r="14" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="19"/>
@@ -61152,13 +61146,13 @@
     </row>
     <row r="15" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="31"/>
-      <c r="C15" s="261" t="s">
+      <c r="C15" s="262" t="s">
         <v>626</v>
       </c>
-      <c r="D15" s="227"/>
-      <c r="E15" s="227"/>
-      <c r="F15" s="227"/>
-      <c r="G15" s="268"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="233"/>
+      <c r="F15" s="233"/>
+      <c r="G15" s="263"/>
     </row>
     <row r="16" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="31"/>
@@ -61170,13 +61164,13 @@
     </row>
     <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
-      <c r="C17" s="261" t="s">
+      <c r="C17" s="262" t="s">
         <v>601</v>
       </c>
-      <c r="D17" s="227"/>
-      <c r="E17" s="227"/>
-      <c r="F17" s="227"/>
-      <c r="G17" s="268"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="233"/>
+      <c r="G17" s="263"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="31"/>
@@ -61188,13 +61182,13 @@
     </row>
     <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="31"/>
-      <c r="C19" s="261" t="s">
+      <c r="C19" s="262" t="s">
         <v>602</v>
       </c>
-      <c r="D19" s="227"/>
-      <c r="E19" s="227"/>
-      <c r="F19" s="227"/>
-      <c r="G19" s="268"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="233"/>
+      <c r="G19" s="263"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="31"/>
@@ -61206,13 +61200,13 @@
     </row>
     <row r="21" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="31"/>
-      <c r="C21" s="259" t="s">
+      <c r="C21" s="264" t="s">
         <v>684</v>
       </c>
-      <c r="D21" s="269"/>
-      <c r="E21" s="269"/>
-      <c r="F21" s="269"/>
-      <c r="G21" s="270"/>
+      <c r="D21" s="265"/>
+      <c r="E21" s="265"/>
+      <c r="F21" s="265"/>
+      <c r="G21" s="266"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="31"/>
@@ -62845,11 +62839,11 @@
       <c r="A93" s="133" t="s">
         <v>334</v>
       </c>
-      <c r="B93" s="219" t="s">
+      <c r="B93" s="222" t="s">
         <v>421</v>
       </c>
-      <c r="C93" s="219"/>
-      <c r="D93" s="219"/>
+      <c r="C93" s="222"/>
+      <c r="D93" s="222"/>
       <c r="E93" s="140"/>
       <c r="F93" s="137"/>
       <c r="G93" s="139"/>
@@ -62865,11 +62859,11 @@
       <c r="H94" s="131"/>
     </row>
     <row r="95" spans="1:8" s="133" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="219" t="s">
+      <c r="B95" s="222" t="s">
         <v>420</v>
       </c>
-      <c r="C95" s="219"/>
-      <c r="D95" s="219"/>
+      <c r="C95" s="222"/>
+      <c r="D95" s="222"/>
       <c r="E95" s="140"/>
       <c r="F95" s="137" t="s">
         <v>423</v>
@@ -62884,11 +62878,11 @@
       <c r="H96" s="131"/>
     </row>
     <row r="97" spans="2:8" s="133" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="219" t="s">
+      <c r="B97" s="222" t="s">
         <v>421</v>
       </c>
-      <c r="C97" s="219"/>
-      <c r="D97" s="219"/>
+      <c r="C97" s="222"/>
+      <c r="D97" s="222"/>
       <c r="E97" s="140"/>
       <c r="F97" s="141" t="s">
         <v>424</v>
@@ -62908,12 +62902,12 @@
       <c r="H98" s="131"/>
     </row>
     <row r="99" spans="2:8" s="133" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="219" t="s">
+      <c r="B99" s="222" t="s">
         <v>503</v>
       </c>
-      <c r="C99" s="219"/>
-      <c r="D99" s="219"/>
-      <c r="E99" s="219"/>
+      <c r="C99" s="222"/>
+      <c r="D99" s="222"/>
+      <c r="E99" s="222"/>
       <c r="F99" s="141" t="s">
         <v>426</v>
       </c>
@@ -62945,12 +62939,12 @@
     </row>
     <row r="103" spans="2:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="19"/>
-      <c r="C103" s="263" t="s">
+      <c r="C103" s="271" t="s">
         <v>530</v>
       </c>
-      <c r="D103" s="264"/>
-      <c r="E103" s="264"/>
-      <c r="F103" s="264"/>
+      <c r="D103" s="272"/>
+      <c r="E103" s="272"/>
+      <c r="F103" s="272"/>
     </row>
     <row r="104" spans="2:8" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="19"/>
@@ -62961,12 +62955,12 @@
     </row>
     <row r="105" spans="2:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="31"/>
-      <c r="C105" s="261" t="s">
+      <c r="C105" s="262" t="s">
         <v>600</v>
       </c>
-      <c r="D105" s="262"/>
-      <c r="E105" s="262"/>
-      <c r="F105" s="262"/>
+      <c r="D105" s="270"/>
+      <c r="E105" s="270"/>
+      <c r="F105" s="270"/>
       <c r="G105" s="90"/>
     </row>
     <row r="106" spans="2:8" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
@@ -62979,12 +62973,12 @@
     </row>
     <row r="107" spans="2:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="31"/>
-      <c r="C107" s="261" t="s">
+      <c r="C107" s="262" t="s">
         <v>601</v>
       </c>
-      <c r="D107" s="262"/>
-      <c r="E107" s="262"/>
-      <c r="F107" s="262"/>
+      <c r="D107" s="270"/>
+      <c r="E107" s="270"/>
+      <c r="F107" s="270"/>
       <c r="G107" s="90"/>
     </row>
     <row r="108" spans="2:8" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
@@ -62997,12 +62991,12 @@
     </row>
     <row r="109" spans="2:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="31"/>
-      <c r="C109" s="261" t="s">
+      <c r="C109" s="262" t="s">
         <v>602</v>
       </c>
-      <c r="D109" s="262"/>
-      <c r="E109" s="262"/>
-      <c r="F109" s="262"/>
+      <c r="D109" s="270"/>
+      <c r="E109" s="270"/>
+      <c r="F109" s="270"/>
       <c r="G109" s="90"/>
     </row>
     <row r="110" spans="2:8" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
@@ -63015,12 +63009,12 @@
     </row>
     <row r="111" spans="2:8" ht="18.600000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B111" s="31"/>
-      <c r="C111" s="259" t="s">
+      <c r="C111" s="264" t="s">
         <v>604</v>
       </c>
-      <c r="D111" s="260"/>
-      <c r="E111" s="260"/>
-      <c r="F111" s="260"/>
+      <c r="D111" s="269"/>
+      <c r="E111" s="269"/>
+      <c r="F111" s="269"/>
       <c r="G111" s="90"/>
     </row>
     <row r="112" spans="2:8" hidden="1" x14ac:dyDescent="0.25"/>
@@ -63032,6 +63026,12 @@
     <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C105:F105"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="C103:F103"/>
     <mergeCell ref="B97:D97"/>
     <mergeCell ref="B95:D95"/>
     <mergeCell ref="B93:D93"/>
@@ -63041,12 +63041,6 @@
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C13:G13"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="C105:F105"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="C109:F109"/>
-    <mergeCell ref="C103:F103"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -63056,7 +63050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -63215,34 +63209,34 @@
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="19"/>
-      <c r="C11" s="265" t="s">
+      <c r="C11" s="259" t="s">
         <v>714</v>
       </c>
-      <c r="D11" s="266"/>
-      <c r="E11" s="266"/>
-      <c r="F11" s="266"/>
-      <c r="G11" s="266"/>
-      <c r="H11" s="267"/>
+      <c r="D11" s="260"/>
+      <c r="E11" s="260"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="260"/>
+      <c r="H11" s="261"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="19"/>
-      <c r="C12" s="265"/>
-      <c r="D12" s="266"/>
-      <c r="E12" s="266"/>
-      <c r="F12" s="266"/>
-      <c r="G12" s="266"/>
-      <c r="H12" s="267"/>
+      <c r="C12" s="259"/>
+      <c r="D12" s="260"/>
+      <c r="E12" s="260"/>
+      <c r="F12" s="260"/>
+      <c r="G12" s="260"/>
+      <c r="H12" s="261"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B13" s="19"/>
-      <c r="C13" s="265" t="s">
+      <c r="C13" s="259" t="s">
         <v>530</v>
       </c>
-      <c r="D13" s="266"/>
-      <c r="E13" s="266"/>
-      <c r="F13" s="266"/>
-      <c r="G13" s="266"/>
-      <c r="H13" s="267"/>
+      <c r="D13" s="260"/>
+      <c r="E13" s="260"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="261"/>
     </row>
     <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="19"/>
@@ -63255,14 +63249,14 @@
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="31"/>
-      <c r="C15" s="261" t="s">
+      <c r="C15" s="262" t="s">
         <v>600</v>
       </c>
-      <c r="D15" s="262"/>
-      <c r="E15" s="262"/>
-      <c r="F15" s="262"/>
-      <c r="G15" s="262"/>
-      <c r="H15" s="268"/>
+      <c r="D15" s="270"/>
+      <c r="E15" s="270"/>
+      <c r="F15" s="270"/>
+      <c r="G15" s="270"/>
+      <c r="H15" s="263"/>
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="31"/>
@@ -63275,14 +63269,14 @@
     </row>
     <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
-      <c r="C17" s="261" t="s">
+      <c r="C17" s="262" t="s">
         <v>601</v>
       </c>
-      <c r="D17" s="262"/>
-      <c r="E17" s="262"/>
-      <c r="F17" s="262"/>
-      <c r="G17" s="262"/>
-      <c r="H17" s="268"/>
+      <c r="D17" s="270"/>
+      <c r="E17" s="270"/>
+      <c r="F17" s="270"/>
+      <c r="G17" s="270"/>
+      <c r="H17" s="263"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="31"/>
@@ -63295,14 +63289,14 @@
     </row>
     <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="31"/>
-      <c r="C19" s="261" t="s">
+      <c r="C19" s="262" t="s">
         <v>602</v>
       </c>
-      <c r="D19" s="262"/>
-      <c r="E19" s="262"/>
-      <c r="F19" s="262"/>
-      <c r="G19" s="262"/>
-      <c r="H19" s="268"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="270"/>
+      <c r="F19" s="270"/>
+      <c r="G19" s="270"/>
+      <c r="H19" s="263"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="31"/>
@@ -63315,14 +63309,14 @@
     </row>
     <row r="21" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="31"/>
-      <c r="C21" s="274" t="s">
+      <c r="C21" s="273" t="s">
         <v>684</v>
       </c>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
-      <c r="H21" s="270"/>
+      <c r="D21" s="269"/>
+      <c r="E21" s="269"/>
+      <c r="F21" s="269"/>
+      <c r="G21" s="269"/>
+      <c r="H21" s="266"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="31"/>
@@ -64974,11 +64968,11 @@
       <c r="A91" s="133" t="s">
         <v>334</v>
       </c>
-      <c r="B91" s="219" t="s">
+      <c r="B91" s="222" t="s">
         <v>421</v>
       </c>
-      <c r="C91" s="219"/>
-      <c r="D91" s="219"/>
+      <c r="C91" s="222"/>
+      <c r="D91" s="222"/>
       <c r="E91" s="140"/>
       <c r="F91" s="140"/>
       <c r="G91" s="137"/>
@@ -64996,11 +64990,11 @@
       <c r="I92" s="145"/>
     </row>
     <row r="93" spans="1:9" s="133" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="219" t="s">
+      <c r="B93" s="222" t="s">
         <v>420</v>
       </c>
-      <c r="C93" s="219"/>
-      <c r="D93" s="219"/>
+      <c r="C93" s="222"/>
+      <c r="D93" s="222"/>
       <c r="E93" s="140"/>
       <c r="F93" s="140"/>
       <c r="G93" s="137" t="s">
@@ -65017,11 +65011,11 @@
       <c r="I94" s="145"/>
     </row>
     <row r="95" spans="1:9" s="133" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="219" t="s">
+      <c r="B95" s="222" t="s">
         <v>421</v>
       </c>
-      <c r="C95" s="219"/>
-      <c r="D95" s="219"/>
+      <c r="C95" s="222"/>
+      <c r="D95" s="222"/>
       <c r="E95" s="140"/>
       <c r="F95" s="140"/>
       <c r="G95" s="141" t="s">
@@ -65043,12 +65037,12 @@
       <c r="I96" s="145"/>
     </row>
     <row r="97" spans="1:13" s="133" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="219" t="s">
+      <c r="B97" s="222" t="s">
         <v>503</v>
       </c>
-      <c r="C97" s="219"/>
-      <c r="D97" s="219"/>
-      <c r="E97" s="273"/>
+      <c r="C97" s="222"/>
+      <c r="D97" s="222"/>
+      <c r="E97" s="274"/>
       <c r="F97" s="140"/>
       <c r="G97" s="146" t="s">
         <v>426</v>
@@ -65086,13 +65080,13 @@
     <row r="101" spans="1:13" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101" s="19"/>
-      <c r="C101" s="249" t="s">
+      <c r="C101" s="248" t="s">
         <v>530</v>
       </c>
-      <c r="D101" s="250"/>
-      <c r="E101" s="250"/>
-      <c r="F101" s="250"/>
-      <c r="G101" s="250"/>
+      <c r="D101" s="249"/>
+      <c r="E101" s="249"/>
+      <c r="F101" s="249"/>
+      <c r="G101" s="249"/>
       <c r="J101"/>
       <c r="K101"/>
       <c r="L101"/>
@@ -65117,10 +65111,10 @@
       <c r="C103" s="238" t="s">
         <v>543</v>
       </c>
-      <c r="D103" s="239"/>
-      <c r="E103" s="239"/>
-      <c r="F103" s="239"/>
-      <c r="G103" s="239"/>
+      <c r="D103" s="245"/>
+      <c r="E103" s="245"/>
+      <c r="F103" s="245"/>
+      <c r="G103" s="245"/>
       <c r="H103" s="90"/>
       <c r="J103"/>
       <c r="K103"/>
@@ -65147,10 +65141,10 @@
       <c r="C105" s="238" t="s">
         <v>542</v>
       </c>
-      <c r="D105" s="239"/>
-      <c r="E105" s="239"/>
-      <c r="F105" s="239"/>
-      <c r="G105" s="239"/>
+      <c r="D105" s="245"/>
+      <c r="E105" s="245"/>
+      <c r="F105" s="245"/>
+      <c r="G105" s="245"/>
       <c r="H105" s="90"/>
       <c r="J105"/>
       <c r="K105"/>
@@ -65177,10 +65171,10 @@
       <c r="C107" s="238" t="s">
         <v>531</v>
       </c>
-      <c r="D107" s="239"/>
-      <c r="E107" s="239"/>
-      <c r="F107" s="239"/>
-      <c r="G107" s="239"/>
+      <c r="D107" s="245"/>
+      <c r="E107" s="245"/>
+      <c r="F107" s="245"/>
+      <c r="G107" s="245"/>
       <c r="H107" s="90"/>
       <c r="J107"/>
       <c r="K107"/>
@@ -65207,10 +65201,10 @@
       <c r="C109" s="238" t="s">
         <v>612</v>
       </c>
-      <c r="D109" s="229"/>
-      <c r="E109" s="229"/>
-      <c r="F109" s="229"/>
-      <c r="G109" s="229"/>
+      <c r="D109" s="230"/>
+      <c r="E109" s="230"/>
+      <c r="F109" s="230"/>
+      <c r="G109" s="230"/>
       <c r="H109" s="90"/>
       <c r="J109"/>
       <c r="K109"/>
@@ -65221,10 +65215,10 @@
       <c r="A110"/>
       <c r="B110" s="31"/>
       <c r="C110" s="238"/>
-      <c r="D110" s="229"/>
-      <c r="E110" s="229"/>
-      <c r="F110" s="229"/>
-      <c r="G110" s="229"/>
+      <c r="D110" s="230"/>
+      <c r="E110" s="230"/>
+      <c r="F110" s="230"/>
+      <c r="G110" s="230"/>
       <c r="H110" s="90"/>
       <c r="J110"/>
       <c r="K110"/>
@@ -65234,13 +65228,13 @@
     <row r="111" spans="1:13" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111" s="31"/>
-      <c r="C111" s="241" t="s">
+      <c r="C111" s="239" t="s">
         <v>613</v>
       </c>
-      <c r="D111" s="242"/>
-      <c r="E111" s="242"/>
-      <c r="F111" s="242"/>
-      <c r="G111" s="242"/>
+      <c r="D111" s="240"/>
+      <c r="E111" s="240"/>
+      <c r="F111" s="240"/>
+      <c r="G111" s="240"/>
       <c r="H111" s="90"/>
       <c r="J111"/>
       <c r="K111"/>
@@ -65269,6 +65263,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="B97:E97"/>
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B93:D93"/>
@@ -65278,15 +65281,6 @@
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C17:H17"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C105:G105"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="B97:E97"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -65297,7 +65291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
